--- a/Results-Lilim-100Nodes.xlsx
+++ b/Results-Lilim-100Nodes.xlsx
@@ -33,15 +33,9 @@
     <t>Best-simple distances</t>
   </si>
   <si>
-    <t>Best-Simple CT</t>
-  </si>
-  <si>
     <t>Best Sol</t>
   </si>
   <si>
-    <t>Best KNN Distances</t>
-  </si>
-  <si>
     <t>lc101.txt</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>AVG Worse2Worst's CT</t>
+  </si>
+  <si>
+    <t>AVG KNN Distances</t>
+  </si>
+  <si>
+    <t>AVG KNN CT</t>
   </si>
 </sst>
 </file>
@@ -362,6 +362,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,7 +372,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,215 +668,215 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="13" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="13" t="s">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="T2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="Z2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AF2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="AL2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="AR2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="11">
         <v>149.24985279121501</v>
@@ -1010,18 +1010,44 @@
         <f>SUM(T4:X4)</f>
         <v>10.833273005485511</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
+      <c r="Z4">
+        <v>211.683008166473</v>
+      </c>
+      <c r="AA4">
+        <v>108.913715957764</v>
+      </c>
+      <c r="AB4">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC4">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AD4">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AE4" s="5">
+        <f>SUM(Z4:AD4)</f>
+        <v>722.78831881604037</v>
+      </c>
+      <c r="AF4">
+        <v>4.5725528240203799</v>
+      </c>
+      <c r="AG4">
+        <v>2.3510542869567801</v>
+      </c>
+      <c r="AH4">
+        <v>2.7839117288589401</v>
+      </c>
+      <c r="AI4">
+        <v>5.3244398117065401</v>
+      </c>
+      <c r="AJ4">
+        <v>1.3456640958785999</v>
+      </c>
+      <c r="AK4" s="3">
+        <f>SUM(AF4:AJ4)</f>
+        <v>16.377622747421242</v>
+      </c>
       <c r="AL4" s="10"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
@@ -1050,7 +1076,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>147.69962901947</v>
@@ -1168,7 +1194,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>151.11957368607401</v>
@@ -1286,7 +1312,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>188.76575923012899</v>
@@ -1404,7 +1430,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>148.756384553087</v>
@@ -1522,7 +1548,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>210.31133459479599</v>
@@ -1640,7 +1666,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>147.69962901947</v>
@@ -1758,7 +1784,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>151.98178517246799</v>
@@ -1876,7 +1902,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>150.81021229721401</v>
@@ -1994,7 +2020,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>247.216798456151</v>
@@ -2098,7 +2124,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>249.329909798448</v>
@@ -2202,7 +2228,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>232.82055388303499</v>
@@ -2306,7 +2332,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>236.205554831212</v>
@@ -2410,7 +2436,7 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>289.62720165852699</v>
@@ -2514,7 +2540,7 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>274.06888138866702</v>
@@ -2618,7 +2644,7 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>289.62720165852699</v>
@@ -2722,7 +2748,7 @@
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>289.389614297013</v>
@@ -2826,7 +2852,7 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>396.42721009246401</v>
@@ -2866,23 +2892,43 @@
         <f t="shared" si="1"/>
         <v>13.495543456077565</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="N21">
+        <v>521.48600491852301</v>
+      </c>
+      <c r="O21">
+        <v>424.12869370375898</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>503.285375280305</v>
+      </c>
+      <c r="R21">
+        <v>138.818193341615</v>
+      </c>
       <c r="S21" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+        <v>1587.718267244202</v>
+      </c>
+      <c r="T21">
+        <v>5.80400855541229</v>
+      </c>
+      <c r="U21">
+        <v>3.7419264793395901</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>11.036450648307801</v>
+      </c>
+      <c r="X21">
+        <v>1.5042830944061201</v>
+      </c>
       <c r="Y21" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.0866687774658</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
@@ -2910,7 +2956,7 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>486.06159273742702</v>
@@ -2950,23 +2996,43 @@
         <f t="shared" si="1"/>
         <v>19.044734716415388</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="N22">
+        <v>375.39494270252101</v>
+      </c>
+      <c r="O22">
+        <v>309.71901524984497</v>
+      </c>
+      <c r="P22">
+        <v>162.69912452858301</v>
+      </c>
+      <c r="Q22">
+        <v>412.128115840411</v>
+      </c>
+      <c r="R22">
+        <v>267.71425545718802</v>
+      </c>
       <c r="S22" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+        <v>1527.6554537785482</v>
+      </c>
+      <c r="T22">
+        <v>4.5866687297821001</v>
+      </c>
+      <c r="U22">
+        <v>3.2724916219711302</v>
+      </c>
+      <c r="V22">
+        <v>1.1240689277648901</v>
+      </c>
+      <c r="W22">
+        <v>12.645037913322399</v>
+      </c>
+      <c r="X22">
+        <v>2.9356721162796</v>
+      </c>
       <c r="Y22" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24.563939309120119</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="3"/>
@@ -2994,7 +3060,7 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>498.36462739012501</v>
@@ -3034,23 +3100,43 @@
         <f t="shared" si="1"/>
         <v>18.263992786407446</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="N23">
+        <v>378.92126379166803</v>
+      </c>
+      <c r="O23">
+        <v>324.43347217154502</v>
+      </c>
+      <c r="P23">
+        <v>107.03654188422701</v>
+      </c>
+      <c r="Q23">
+        <v>405.65952689431998</v>
+      </c>
+      <c r="R23">
+        <v>149.532306694402</v>
+      </c>
       <c r="S23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+        <v>1365.583111436162</v>
+      </c>
+      <c r="T23">
+        <v>8.3454891920089693</v>
+      </c>
+      <c r="U23">
+        <v>4.1460428953170698</v>
+      </c>
+      <c r="V23">
+        <v>0.96125626564025801</v>
+      </c>
+      <c r="W23">
+        <v>13.9615181207656</v>
+      </c>
+      <c r="X23">
+        <v>1.29837589263916</v>
+      </c>
       <c r="Y23" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.712682366371059</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="3"/>
@@ -3078,7 +3164,7 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>230.80622383749801</v>
@@ -3118,23 +3204,43 @@
         <f t="shared" si="1"/>
         <v>27.142536258697415</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="N24">
+        <v>156.935754278324</v>
+      </c>
+      <c r="O24">
+        <v>256.32313418170497</v>
+      </c>
+      <c r="P24">
+        <v>110.215753225741</v>
+      </c>
+      <c r="Q24">
+        <v>395.535195627755</v>
+      </c>
+      <c r="R24">
+        <v>135.32683348555699</v>
+      </c>
       <c r="S24" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+        <v>1054.336670799082</v>
+      </c>
+      <c r="T24">
+        <v>3.9507281780242902</v>
+      </c>
+      <c r="U24">
+        <v>4.7469831466674801</v>
+      </c>
+      <c r="V24">
+        <v>1.3161084175109801</v>
+      </c>
+      <c r="W24">
+        <v>23.078733515739401</v>
+      </c>
+      <c r="X24">
+        <v>1.54419405460357</v>
+      </c>
       <c r="Y24" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34.636747312545722</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="3"/>
@@ -3162,7 +3268,7 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>430.85093028183599</v>
@@ -3202,23 +3308,43 @@
         <f t="shared" si="1"/>
         <v>14.727666115760785</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="N25">
+        <v>457.54450692061999</v>
+      </c>
+      <c r="O25">
+        <v>288.707743793936</v>
+      </c>
+      <c r="P25">
+        <v>77.896209248496902</v>
+      </c>
+      <c r="Q25">
+        <v>402.99591549689501</v>
+      </c>
+      <c r="R25">
+        <v>97.211201382527307</v>
+      </c>
       <c r="S25" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+        <v>1324.3555768424753</v>
+      </c>
+      <c r="T25">
+        <v>5.6123781919479301</v>
+      </c>
+      <c r="U25">
+        <v>2.9085940361022899</v>
+      </c>
+      <c r="V25">
+        <v>0.92688302993774396</v>
+      </c>
+      <c r="W25">
+        <v>14.960692572593601</v>
+      </c>
+      <c r="X25">
+        <v>0.905289030075073</v>
+      </c>
       <c r="Y25" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.31383686065664</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="3"/>
@@ -3246,7 +3372,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>305.93952909579798</v>
@@ -3286,23 +3412,43 @@
         <f t="shared" si="1"/>
         <v>17.819362759590081</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3">
+      <c r="N26">
+        <v>254.265290287076</v>
+      </c>
+      <c r="O26">
+        <v>447.54186112876403</v>
+      </c>
+      <c r="P26">
+        <v>57.717229524138297</v>
+      </c>
+      <c r="Q26">
+        <v>377.02901320674403</v>
+      </c>
+      <c r="R26">
+        <v>192.738990361568</v>
+      </c>
+      <c r="S26" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+        <v>1329.2923845082905</v>
+      </c>
+      <c r="T26">
+        <v>4.4678679466247502</v>
+      </c>
+      <c r="U26">
+        <v>4.8425810813903798</v>
+      </c>
+      <c r="V26">
+        <v>0.52582972049713095</v>
+      </c>
+      <c r="W26">
+        <v>11.202853560447601</v>
+      </c>
+      <c r="X26">
+        <v>1.7851018667220999</v>
+      </c>
       <c r="Y26" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.824234175681962</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="3"/>
@@ -3330,7 +3476,7 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>282.07944490536801</v>
@@ -3370,23 +3516,43 @@
         <f t="shared" si="1"/>
         <v>17.645011711120564</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="N27">
+        <v>225.317319555756</v>
+      </c>
+      <c r="O27">
+        <v>437.49075940817602</v>
+      </c>
+      <c r="P27">
+        <v>98.569350828647899</v>
+      </c>
+      <c r="Q27">
+        <v>331.743535964329</v>
+      </c>
+      <c r="R27">
+        <v>283.916789776521</v>
+      </c>
       <c r="S27" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="2"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
+        <v>1377.0377555334298</v>
+      </c>
+      <c r="T27">
+        <v>3.2286072254180902</v>
+      </c>
+      <c r="U27">
+        <v>4.5159832239151001</v>
+      </c>
+      <c r="V27">
+        <v>0.92814893722534098</v>
+      </c>
+      <c r="W27">
+        <v>15.7028008937835</v>
+      </c>
+      <c r="X27">
+        <v>2.6298358201980498</v>
+      </c>
       <c r="Y27" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.005376100540079</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="3"/>
@@ -3414,7 +3580,7 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>307.91779029529101</v>
@@ -3454,23 +3620,43 @@
         <f t="shared" si="1"/>
         <v>24.068307137489281</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="N28">
+        <v>405.854103249876</v>
+      </c>
+      <c r="O28">
+        <v>231.071113074484</v>
+      </c>
+      <c r="P28">
+        <v>67.413535702124705</v>
+      </c>
+      <c r="Q28">
+        <v>286.93534068237</v>
+      </c>
+      <c r="R28">
+        <v>97.608525881077995</v>
+      </c>
       <c r="S28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="2"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
+        <v>1088.8826185899327</v>
+      </c>
+      <c r="T28">
+        <v>11.7249987125396</v>
+      </c>
+      <c r="U28">
+        <v>4.6864499330520601</v>
+      </c>
+      <c r="V28">
+        <v>0.82336246967315596</v>
+      </c>
+      <c r="W28">
+        <v>12.5211183786392</v>
+      </c>
+      <c r="X28">
+        <v>1.0087560892105101</v>
+      </c>
       <c r="Y28" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30.764685583114531</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="3"/>
@@ -3498,7 +3684,7 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>425.26188515413799</v>
@@ -3538,23 +3724,43 @@
         <f t="shared" si="1"/>
         <v>16.758595252037026</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="N29">
+        <v>390.79445258816298</v>
+      </c>
+      <c r="O29">
+        <v>227.98759649976699</v>
+      </c>
+      <c r="P29">
+        <v>151.90283772009599</v>
+      </c>
+      <c r="Q29">
+        <v>447.00968281992198</v>
+      </c>
+      <c r="R29">
+        <v>180.503507888332</v>
+      </c>
       <c r="S29" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
+        <v>1398.1980775162801</v>
+      </c>
+      <c r="T29">
+        <v>6.1151346921920702</v>
+      </c>
+      <c r="U29">
+        <v>2.4279105901718099</v>
+      </c>
+      <c r="V29">
+        <v>1.43646702766418</v>
+      </c>
+      <c r="W29">
+        <v>17.313815307617102</v>
+      </c>
+      <c r="X29">
+        <v>1.9636747837066599</v>
+      </c>
       <c r="Y29" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29.257002401351823</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="3"/>
@@ -3582,7 +3788,7 @@
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>333.93534490241302</v>
@@ -3622,23 +3828,43 @@
         <f t="shared" si="1"/>
         <v>18.732582616806017</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3">
+      <c r="N30">
+        <v>556.12269329150001</v>
+      </c>
+      <c r="O30">
+        <v>176.19271561223599</v>
+      </c>
+      <c r="P30">
+        <v>41.641911200140598</v>
+      </c>
+      <c r="Q30">
+        <v>254.70889673455699</v>
+      </c>
+      <c r="R30">
+        <v>156.392119098053</v>
+      </c>
+      <c r="S30" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+        <v>1185.0583359364864</v>
+      </c>
+      <c r="T30">
+        <v>20.593010067939701</v>
+      </c>
+      <c r="U30">
+        <v>2.83560674190521</v>
+      </c>
+      <c r="V30">
+        <v>0.61190886497497499</v>
+      </c>
+      <c r="W30">
+        <v>8.2241721868515008</v>
+      </c>
+      <c r="X30">
+        <v>1.8050683021545399</v>
+      </c>
       <c r="Y30" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34.069766163825925</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="3"/>
@@ -3666,7 +3892,7 @@
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>343.19388904959499</v>
@@ -3750,7 +3976,7 @@
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>323.577160567166</v>
@@ -3834,7 +4060,7 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>388.94166662511202</v>
@@ -3918,7 +4144,7 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>424.91878847256402</v>
@@ -4002,7 +4228,7 @@
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>449.41272167038699</v>
@@ -4086,7 +4312,7 @@
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>597.53672294878095</v>
@@ -4170,7 +4396,7 @@
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -4234,7 +4460,7 @@
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -4298,7 +4524,7 @@
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -4362,7 +4588,7 @@
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -4426,7 +4652,7 @@
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -4490,7 +4716,7 @@
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -4554,7 +4780,7 @@
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -4618,7 +4844,7 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -4682,7 +4908,7 @@
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -4746,7 +4972,7 @@
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
@@ -4810,7 +5036,7 @@
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
@@ -4874,7 +5100,7 @@
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -4938,7 +5164,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -5002,7 +5228,7 @@
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -5066,7 +5292,7 @@
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
@@ -5130,7 +5356,7 @@
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -5194,7 +5420,7 @@
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -5258,7 +5484,7 @@
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -5322,7 +5548,7 @@
     </row>
     <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>176.857853206957</v>
@@ -5406,7 +5632,7 @@
     </row>
     <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -5470,7 +5696,7 @@
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -5534,7 +5760,7 @@
     </row>
     <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -5598,7 +5824,7 @@
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
@@ -5673,14 +5899,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="AR1:AW1"/>
     <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Results-Lilim-100Nodes.xlsx
+++ b/Results-Lilim-100Nodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>Instance names</t>
   </si>
@@ -228,10 +228,22 @@
     <t>AVG Worse2Worst's CT</t>
   </si>
   <si>
-    <t>AVG KNN Distances</t>
+    <t>AVG 3-Voter Distances</t>
   </si>
   <si>
-    <t>AVG KNN CT</t>
+    <t>AVG 3-Voter CT</t>
+  </si>
+  <si>
+    <t>AVG Final_assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG Final_assigned CT</t>
+  </si>
+  <si>
+    <t>AVG Final_vote_assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG Final_vote_assigned CT</t>
   </si>
 </sst>
 </file>
@@ -344,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -355,9 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -652,88 +661,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW60"/>
+  <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="18" width="9.140625" customWidth="1"/>
+    <col min="20" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="8.140625" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" customWidth="1"/>
+    <col min="36" max="36" width="8.42578125" customWidth="1"/>
+    <col min="37" max="49" width="9.140625" customWidth="1"/>
+    <col min="62" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="14" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="14" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="14" t="s">
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
@@ -785,7 +836,7 @@
       <c r="R2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -803,7 +854,7 @@
       <c r="X2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -857,7 +908,7 @@
       <c r="AP2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="AR2" s="2" t="s">
@@ -878,8 +929,80 @@
       <c r="AW2" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AX2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -920,33 +1043,57 @@
       <c r="AL3" s="7"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
-      <c r="AO3" s="9"/>
+      <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
+      <c r="AQ3" s="8"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>149.24985279121501</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>95.799959326746404</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>148.51835634154801</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>201.14593791939001</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>52.527300430865402</v>
       </c>
       <c r="G4" s="5">
@@ -972,7 +1119,7 @@
         <f>SUM(H4:L4)</f>
         <v>11.471877574920637</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>149.24985279121501</v>
       </c>
       <c r="O4">
@@ -991,7 +1138,7 @@
         <f>SUM(N4:R4)</f>
         <v>647.24140680976484</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>3.0477790355682299</v>
       </c>
       <c r="U4">
@@ -1010,7 +1157,7 @@
         <f>SUM(T4:X4)</f>
         <v>10.833273005485511</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="10">
         <v>211.683008166473</v>
       </c>
       <c r="AA4">
@@ -1048,33 +1195,89 @@
         <f>SUM(AF4:AJ4)</f>
         <v>16.377622747421242</v>
       </c>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="2">
+      <c r="AL4" s="10">
         <v>149.24985279121501</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AM4">
         <v>95.799959326746404</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AN4">
         <v>148.51835634154801</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AO4">
         <v>201.14593791939001</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AP4">
         <v>52.527300430865402</v>
+      </c>
+      <c r="AQ4" s="5">
+        <f t="shared" ref="AQ4:AQ13" si="0">SUM(AL4:AP4)</f>
+        <v>647.24140680976484</v>
+      </c>
+      <c r="AR4">
+        <v>5.2602434158325098</v>
+      </c>
+      <c r="AS4">
+        <v>2.68002777099609</v>
+      </c>
+      <c r="AT4">
+        <v>3.2573792457580502</v>
+      </c>
+      <c r="AU4">
+        <v>6.2256236314773501</v>
+      </c>
+      <c r="AV4">
+        <v>1.5733957290649401</v>
       </c>
       <c r="AW4" s="3">
         <f>SUM(AR4:AV4)</f>
+        <v>18.996669793128941</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>149.24985279121501</v>
+      </c>
+      <c r="AY4">
+        <v>95.799959326746404</v>
+      </c>
+      <c r="AZ4">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BA4">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BB4">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BC4" s="5">
+        <f>SUM(AX4:BB4)</f>
         <v>647.24140680976484</v>
       </c>
+      <c r="BI4" s="3">
+        <f>SUM(BD4:BH4)</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="2">
+        <v>149.24985279121501</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>95.799959326746404</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BU4" s="3">
+        <f>SUM(BP4:BT4)</f>
+        <v>647.24140680976484</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1297,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G59" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G59" si="1">SUM(B5:F5)</f>
         <v>653.55332762249236</v>
       </c>
       <c r="H5">
@@ -1113,7 +1316,7 @@
         <v>0.89215095043182302</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" ref="M5:M60" si="1">SUM(H5:L5)</f>
+        <f t="shared" ref="M5:M60" si="2">SUM(H5:L5)</f>
         <v>12.911525774002053</v>
       </c>
       <c r="N5" s="2">
@@ -1132,7 +1335,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" ref="S5:S59" si="2">SUM(N5:R5)</f>
+        <f t="shared" ref="S5:S59" si="3">SUM(N5:R5)</f>
         <v>622.80554927629134</v>
       </c>
       <c r="T5" s="2">
@@ -1151,48 +1354,130 @@
         <v>0.81414456367492605</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" ref="Y5:Y59" si="3">SUM(T5:X5)</f>
+        <f t="shared" ref="Y5:Y59" si="4">SUM(T5:X5)</f>
         <v>11.796334099769567</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="2">
+      <c r="Z5" s="2">
+        <v>110.206699026359</v>
+      </c>
+      <c r="AA5">
+        <v>110.40725555812899</v>
+      </c>
+      <c r="AB5">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC5">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AD5">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" ref="AE5:AE48" si="5">SUM(Z5:AD5)</f>
+        <v>622.80554927629134</v>
+      </c>
+      <c r="AF5">
+        <v>3.5312928199767999</v>
+      </c>
+      <c r="AG5">
+        <v>3.26616711616516</v>
+      </c>
+      <c r="AH5">
+        <v>3.29153571128845</v>
+      </c>
+      <c r="AI5">
+        <v>5.9065156936645504</v>
+      </c>
+      <c r="AJ5">
+        <v>1.3486926555633501</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" ref="AK5:AK48" si="6">SUM(AF5:AJ5)</f>
+        <v>17.344203996658312</v>
+      </c>
+      <c r="AL5" s="2">
         <v>147.69962901947</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AM5">
         <v>103.66210391121901</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AN5">
         <v>148.51835634154801</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AO5">
         <v>201.14593791939001</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AP5">
         <v>52.527300430865402</v>
       </c>
+      <c r="AQ5" s="5">
+        <f t="shared" si="0"/>
+        <v>653.55332762249236</v>
+      </c>
+      <c r="AR5">
+        <v>4.84265370368957</v>
+      </c>
+      <c r="AS5">
+        <v>3.28637247085571</v>
+      </c>
+      <c r="AT5">
+        <v>3.8697386026382401</v>
+      </c>
+      <c r="AU5">
+        <v>7.3582443714141803</v>
+      </c>
+      <c r="AV5">
+        <v>1.6552754402160601</v>
+      </c>
       <c r="AW5" s="3">
-        <f t="shared" ref="AW5:AW60" si="4">SUM(AR5:AV5)</f>
+        <f>SUM(AR5:AV5)</f>
+        <v>21.01228458881376</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>147.69962901947</v>
+      </c>
+      <c r="AY5">
+        <v>103.66210391121901</v>
+      </c>
+      <c r="AZ5">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BA5">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BB5">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BC5" s="5">
+        <f t="shared" ref="BC5:BC48" si="7">SUM(AX5:BB5)</f>
         <v>653.55332762249236</v>
       </c>
+      <c r="BI5" s="3">
+        <f t="shared" ref="BI5:BI48" si="8">SUM(BD5:BH5)</f>
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="2">
+        <v>147.69962901947</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>103.66210391121901</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BU5" s="3">
+        <f t="shared" ref="BU5:BU60" si="9">SUM(BP5:BT5)</f>
+        <v>653.55332762249236</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1212,105 +1497,187 @@
         <v>109.76092543441101</v>
       </c>
       <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>702.36985449069584</v>
+      </c>
+      <c r="H6">
+        <v>4.2266420841216998</v>
+      </c>
+      <c r="I6">
+        <v>1.9394922733306801</v>
+      </c>
+      <c r="J6">
+        <v>3.1483096122741698</v>
+      </c>
+      <c r="K6">
+        <v>5.9131229400634702</v>
+      </c>
+      <c r="L6">
+        <v>0.97654285430908205</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>16.204109764099101</v>
+      </c>
+      <c r="N6" s="2">
+        <v>151.11957368607401</v>
+      </c>
+      <c r="O6">
+        <v>93.360450951570897</v>
+      </c>
+      <c r="P6">
+        <v>147.73999534465699</v>
+      </c>
+      <c r="Q6">
+        <v>200.388909073983</v>
+      </c>
+      <c r="R6">
+        <v>109.76092543441101</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="3"/>
+        <v>702.36985449069584</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3.8143922328948898</v>
+      </c>
+      <c r="U6">
+        <v>1.82517144680023</v>
+      </c>
+      <c r="V6">
+        <v>2.8470872402191101</v>
+      </c>
+      <c r="W6">
+        <v>5.9051944255828799</v>
+      </c>
+      <c r="X6">
+        <v>0.90319273471832195</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="4"/>
+        <v>15.295038080215432</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>254.471756087014</v>
+      </c>
+      <c r="AA6">
+        <v>107.66465581875801</v>
+      </c>
+      <c r="AB6">
+        <v>147.73999534465699</v>
+      </c>
+      <c r="AC6">
+        <v>200.388909073983</v>
+      </c>
+      <c r="AD6">
+        <v>51.9730875185762</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="5"/>
+        <v>762.23840384298819</v>
+      </c>
+      <c r="AF6">
+        <v>5.81062934398651</v>
+      </c>
+      <c r="AG6">
+        <v>3.6479019880294801</v>
+      </c>
+      <c r="AH6">
+        <v>4.6934504032135003</v>
+      </c>
+      <c r="AI6">
+        <v>8.2610292434692294</v>
+      </c>
+      <c r="AJ6">
+        <v>1.28321483135223</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="6"/>
+        <v>23.696225810050951</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>151.11957368607401</v>
+      </c>
+      <c r="AM6">
+        <v>93.360450951570897</v>
+      </c>
+      <c r="AN6">
+        <v>147.73999534465699</v>
+      </c>
+      <c r="AO6">
+        <v>200.388909073983</v>
+      </c>
+      <c r="AP6">
+        <v>109.76092543441101</v>
+      </c>
+      <c r="AQ6" s="5">
         <f t="shared" si="0"/>
         <v>702.36985449069584</v>
       </c>
-      <c r="H6">
-        <v>4.2266420841216998</v>
-      </c>
-      <c r="I6">
-        <v>1.9394922733306801</v>
-      </c>
-      <c r="J6">
-        <v>3.1483096122741698</v>
-      </c>
-      <c r="K6">
-        <v>5.9131229400634702</v>
-      </c>
-      <c r="L6">
-        <v>0.97654285430908205</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="1"/>
-        <v>16.204109764099101</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="AR6">
+        <v>6.2772170782089196</v>
+      </c>
+      <c r="AS6">
+        <v>3.2818433761596602</v>
+      </c>
+      <c r="AT6">
+        <v>5.0875574350357002</v>
+      </c>
+      <c r="AU6">
+        <v>8.9371951103210403</v>
+      </c>
+      <c r="AV6">
+        <v>1.7075707912445</v>
+      </c>
+      <c r="AW6" s="3">
+        <f>SUM(AR6:AV6)</f>
+        <v>25.291383790969821</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>254.66761625976699</v>
+      </c>
+      <c r="AY6">
+        <v>93.360450951570897</v>
+      </c>
+      <c r="AZ6">
+        <v>147.73999534465699</v>
+      </c>
+      <c r="BA6">
+        <v>200.388909073983</v>
+      </c>
+      <c r="BB6">
+        <v>51.9730875185762</v>
+      </c>
+      <c r="BC6" s="5">
+        <f t="shared" si="7"/>
+        <v>748.1300591485541</v>
+      </c>
+      <c r="BI6" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="2">
         <v>151.11957368607401</v>
       </c>
-      <c r="O6">
+      <c r="BQ6" s="3">
         <v>93.360450951570897</v>
       </c>
-      <c r="P6">
+      <c r="BR6" s="3">
         <v>147.73999534465699</v>
       </c>
-      <c r="Q6">
+      <c r="BS6" s="3">
         <v>200.388909073983</v>
       </c>
-      <c r="R6">
+      <c r="BT6" s="3">
         <v>109.76092543441101</v>
       </c>
-      <c r="S6" s="3">
-        <f t="shared" si="2"/>
+      <c r="BU6" s="3">
+        <f t="shared" si="9"/>
         <v>702.36985449069584</v>
       </c>
-      <c r="T6" s="2">
-        <v>3.8143922328948898</v>
-      </c>
-      <c r="U6">
-        <v>1.82517144680023</v>
-      </c>
-      <c r="V6">
-        <v>2.8470872402191101</v>
-      </c>
-      <c r="W6">
-        <v>5.9051944255828799</v>
-      </c>
-      <c r="X6">
-        <v>0.90319273471832195</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="3"/>
-        <v>15.295038080215432</v>
-      </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="2">
-        <v>151.11957368607401</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>93.360450951570897</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>147.73999534465699</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>200.388909073983</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>109.76092543441101</v>
-      </c>
-      <c r="AW6" s="3">
-        <f t="shared" si="4"/>
-        <v>702.36985449069584</v>
-      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1735,7 @@
         <v>109.76092543441101</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>717.28541978938892</v>
       </c>
       <c r="T7" s="2">
@@ -1387,48 +1754,101 @@
         <v>1.2231767654418899</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.363980674743537</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="2">
-        <v>188.76575923012899</v>
-      </c>
-      <c r="AS7" s="3">
+      <c r="AE7" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>151.83723053454599</v>
+      </c>
+      <c r="AM7">
         <v>106.78060331663001</v>
       </c>
-      <c r="AT7" s="3">
-        <v>130.862087378181</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>194.79950731981299</v>
-      </c>
-      <c r="AV7" s="3">
+      <c r="AN7">
+        <v>144.47355668633099</v>
+      </c>
+      <c r="AO7">
+        <v>195.10195163233701</v>
+      </c>
+      <c r="AP7">
         <v>109.76092543441101</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f t="shared" si="0"/>
+        <v>707.95426760425494</v>
+      </c>
+      <c r="AR7">
+        <v>8.7047447919845506</v>
+      </c>
+      <c r="AS7">
+        <v>3.7855791568756101</v>
+      </c>
+      <c r="AT7">
+        <v>7.6783257961273197</v>
+      </c>
+      <c r="AU7">
+        <v>14.9599250316619</v>
+      </c>
+      <c r="AV7">
+        <v>2.1534762620925898</v>
       </c>
       <c r="AW7" s="3">
         <f>SUM(AR7:AV7)</f>
+        <v>37.282051038741969</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>226.34101787508001</v>
+      </c>
+      <c r="AY7">
+        <v>106.78060331663001</v>
+      </c>
+      <c r="AZ7">
+        <v>144.47355668633099</v>
+      </c>
+      <c r="BA7">
+        <v>194.950729476075</v>
+      </c>
+      <c r="BB7">
+        <v>50.142135623730901</v>
+      </c>
+      <c r="BC7" s="5">
+        <f t="shared" si="7"/>
+        <v>722.68804297784698</v>
+      </c>
+      <c r="BI7" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="2">
+        <v>188.76575923012899</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>106.78060331663001</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>130.862087378181</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>194.79950731981299</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>109.76092543441101</v>
+      </c>
+      <c r="BU7" s="3">
+        <f>SUM(BP7:BT7)</f>
         <v>730.96888267916393</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1906,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>619.96851189885138</v>
       </c>
       <c r="T8" s="2">
@@ -1505,48 +1925,101 @@
         <v>0.85791544914245599</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.488498735427846</v>
       </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="2">
+      <c r="AE8" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
         <v>148.756384553087</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AM8">
         <v>98.782327103466301</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AN8">
         <v>148.51835634154801</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AO8">
         <v>197.958450110923</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AP8">
         <v>52.527300430865402</v>
       </c>
+      <c r="AQ8" s="5">
+        <f t="shared" si="0"/>
+        <v>646.54281853988959</v>
+      </c>
+      <c r="AR8">
+        <v>5.6356929063796999</v>
+      </c>
+      <c r="AS8">
+        <v>2.7436947107315</v>
+      </c>
+      <c r="AT8">
+        <v>3.4449495315551699</v>
+      </c>
+      <c r="AU8">
+        <v>6.4169917345047001</v>
+      </c>
+      <c r="AV8">
+        <v>1.68602881431579</v>
+      </c>
       <c r="AW8" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(AR8:AV8)</f>
+        <v>19.927357697486862</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>148.756384553087</v>
+      </c>
+      <c r="AY8">
+        <v>98.782327103466301</v>
+      </c>
+      <c r="AZ8">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BA8">
+        <v>197.958450110923</v>
+      </c>
+      <c r="BB8">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BC8" s="5">
+        <f t="shared" si="7"/>
         <v>646.54281853988959</v>
       </c>
+      <c r="BI8" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="2">
+        <v>148.756384553087</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>98.782327103466301</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>197.958450110923</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BU8" s="3">
+        <f t="shared" si="9"/>
+        <v>646.54281853988959</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +2058,7 @@
         <v>1.0937185287475499</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.68032891750333</v>
       </c>
       <c r="N9" s="2">
@@ -1604,7 +2077,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>623.15599970731841</v>
       </c>
       <c r="T9" s="2">
@@ -1623,7 +2096,7 @@
         <v>1.01592309474945</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.123294472694379</v>
       </c>
       <c r="Z9" s="2"/>
@@ -1631,40 +2104,78 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="5"/>
+      <c r="AE9" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
+      <c r="AK9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="2">
+      <c r="AQ9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3">
+        <f t="shared" ref="AW9:AW48" si="10">SUM(AR9:AV9)</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>159.20070889874299</v>
+      </c>
+      <c r="AY9">
+        <v>97.913145460499507</v>
+      </c>
+      <c r="AZ9">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BA9">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BB9">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BC9" s="5">
+        <f t="shared" si="7"/>
+        <v>659.30544905104591</v>
+      </c>
+      <c r="BI9" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="2">
         <v>210.31133459479599</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="BQ9" s="3">
         <v>97.913145460499507</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="BR9" s="3">
         <v>139.45006854101001</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="BS9" s="3">
         <v>201.14593791939001</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="BT9" s="3">
         <v>52.527300430865402</v>
       </c>
-      <c r="AW9" s="3">
-        <f t="shared" si="4"/>
+      <c r="BU9" s="3">
+        <f t="shared" si="9"/>
         <v>701.34778694656086</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +2195,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>653.65214716937442</v>
       </c>
       <c r="H10">
@@ -1703,7 +2214,7 @@
         <v>0.94129893779754603</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.848121118545526</v>
       </c>
       <c r="N10" s="2">
@@ -1722,7 +2233,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>664.8712474411434</v>
       </c>
       <c r="T10" s="2">
@@ -1741,48 +2252,82 @@
         <v>0.85629050731658896</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.147950792312608</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
+      <c r="AK10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="2">
+      <c r="AQ10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
         <v>147.69962901947</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AY10">
         <v>103.760923458101</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AZ10">
         <v>148.51835634154801</v>
       </c>
-      <c r="AU10" s="3">
+      <c r="BA10">
         <v>201.14593791939001</v>
       </c>
-      <c r="AV10" s="3">
+      <c r="BB10">
         <v>52.527300430865402</v>
       </c>
-      <c r="AW10" s="3">
-        <f t="shared" si="4"/>
+      <c r="BC10" s="5">
+        <f t="shared" si="7"/>
         <v>653.65214716937442</v>
       </c>
+      <c r="BI10" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="2">
+        <v>147.69962901947</v>
+      </c>
+      <c r="BQ10" s="3">
+        <v>103.760923458101</v>
+      </c>
+      <c r="BR10" s="3">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BS10" s="3">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BT10" s="3">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BU10" s="3">
+        <f t="shared" si="9"/>
+        <v>653.65214716937442</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +2347,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>650.83011734306001</v>
       </c>
       <c r="H11">
@@ -1821,7 +2366,7 @@
         <v>1.15005183219909</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.955296397209141</v>
       </c>
       <c r="N11" s="2">
@@ -1840,7 +2385,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650.7631127052889</v>
       </c>
       <c r="T11" s="2">
@@ -1859,48 +2404,77 @@
         <v>1.05007333755493</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.3904538631439</v>
       </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
+      <c r="AK11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="2">
+      <c r="AQ11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <f>SUM(AR11:AV11)</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2">
         <v>151.98178517246799</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AY11">
         <v>96.589732841017593</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AZ11">
         <v>148.51835634154801</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="BA11">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BB11">
+        <v>52.527300430865402</v>
+      </c>
+      <c r="BC11" s="5">
+        <f t="shared" si="7"/>
+        <v>650.7631127052889</v>
+      </c>
+      <c r="BI11" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="2">
+        <v>151.98178517246799</v>
+      </c>
+      <c r="BQ11" s="3">
+        <v>96.589732841017593</v>
+      </c>
+      <c r="BR11" s="3">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BS11" s="3">
         <v>201.212942557161</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="BT11" s="3">
         <v>52.527300430865402</v>
       </c>
-      <c r="AW11" s="3">
-        <f t="shared" si="4"/>
+      <c r="BU11" s="3">
+        <f t="shared" si="9"/>
         <v>650.83011734306001</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1920,7 +2494,7 @@
         <v>97.6493571215793</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>689.50421202423513</v>
       </c>
       <c r="H12">
@@ -1939,7 +2513,7 @@
         <v>1.4152739763259801</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.366134023666362</v>
       </c>
       <c r="N12" s="2">
@@ -1958,7 +2532,7 @@
         <v>52.527300430865402</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>640.23734313767443</v>
       </c>
       <c r="T12" s="2">
@@ -1977,48 +2551,77 @@
         <v>1.13138213157653</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.886188673973063</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="5"/>
+      <c r="AE12" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
+      <c r="AK12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL12" s="2"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="2">
+      <c r="AQ12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="3">
+        <f>SUM(AR12:AV12)</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>159.53160835793099</v>
+      </c>
+      <c r="AY12">
+        <v>80.416179041571795</v>
+      </c>
+      <c r="AZ12">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="BA12">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="BB12">
+        <v>97.6493571215793</v>
+      </c>
+      <c r="BC12" s="5">
+        <f t="shared" si="7"/>
+        <v>687.26143878202015</v>
+      </c>
+      <c r="BI12" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="2">
         <v>150.81021229721401</v>
       </c>
-      <c r="AS12" s="3">
+      <c r="BQ12" s="3">
         <v>91.380348344503801</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="BR12" s="3">
         <v>148.51835634154801</v>
       </c>
-      <c r="AU12" s="3">
+      <c r="BS12" s="3">
         <v>201.14593791939001</v>
       </c>
-      <c r="AV12" s="3">
+      <c r="BT12" s="3">
         <v>97.6493571215793</v>
       </c>
-      <c r="AW12" s="3">
-        <f t="shared" si="4"/>
+      <c r="BU12" s="3">
+        <f t="shared" si="9"/>
         <v>689.50421202423513</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2641,7 @@
         <v>191.40709431415601</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1054.694187396497</v>
       </c>
       <c r="H13">
@@ -2057,7 +2660,7 @@
         <v>0.82014923095703096</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.96596469879149</v>
       </c>
       <c r="N13" s="2">
@@ -2076,7 +2679,7 @@
         <v>109.154249735316</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1007.7591672361459</v>
       </c>
       <c r="T13" s="2">
@@ -2095,34 +2698,83 @@
         <v>0.51254746913909899</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.453018999099708</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="5"/>
+      <c r="AE13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="2"/>
-      <c r="AW13">
-        <f t="shared" si="4"/>
+      <c r="AQ13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
+        <f>SUM(AR13:AV13)</f>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>191.60109661909999</v>
+      </c>
+      <c r="AY13">
+        <v>152.765610009699</v>
+      </c>
+      <c r="AZ13">
+        <v>236.49151882785301</v>
+      </c>
+      <c r="BA13">
+        <v>280.64310765543701</v>
+      </c>
+      <c r="BB13">
+        <v>147.44960822020801</v>
+      </c>
+      <c r="BC13" s="5">
+        <f t="shared" si="7"/>
+        <v>1008.950941332297</v>
+      </c>
+      <c r="BD13">
+        <v>2.3262340545654299</v>
+      </c>
+      <c r="BE13">
+        <v>2.4108354091644202</v>
+      </c>
+      <c r="BF13">
+        <v>3.34618639945983</v>
+      </c>
+      <c r="BG13">
+        <v>7.5758262634277296</v>
+      </c>
+      <c r="BH13">
+        <v>1.05056838989257</v>
+      </c>
+      <c r="BI13" s="3">
+        <f t="shared" si="8"/>
+        <v>16.709650516509981</v>
+      </c>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="2"/>
+      <c r="BU13">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2142,7 +2794,7 @@
         <v>165.44333272390901</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1063.3973290618201</v>
       </c>
       <c r="H14">
@@ -2161,7 +2813,7 @@
         <v>1.5036875009536701</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.054575061798072</v>
       </c>
       <c r="N14" s="2">
@@ -2180,7 +2832,7 @@
         <v>170.677305023836</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1142.097561398823</v>
       </c>
       <c r="T14" s="2">
@@ -2199,34 +2851,87 @@
         <v>2.40033922195434</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.789727473258949</v>
       </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
+      <c r="AK14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="2"/>
-      <c r="AW14">
-        <f t="shared" si="4"/>
+      <c r="AQ14" s="5">
+        <f t="shared" ref="AQ10:AQ48" si="11">SUM(AL14:AP14)</f>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="3">
+        <f>SUM(AR14:AV14)</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>162.23528861629501</v>
+      </c>
+      <c r="AY14">
+        <v>194.841703421321</v>
+      </c>
+      <c r="AZ14">
+        <v>203.28513804065699</v>
+      </c>
+      <c r="BA14">
+        <v>192.37871747527601</v>
+      </c>
+      <c r="BB14">
+        <v>203.96616199574001</v>
+      </c>
+      <c r="BC14" s="5">
+        <f t="shared" si="7"/>
+        <v>956.70700954928895</v>
+      </c>
+      <c r="BD14">
+        <v>1.95728588104248</v>
+      </c>
+      <c r="BE14">
+        <v>8.7276434659957793</v>
+      </c>
+      <c r="BF14">
+        <v>7.8754865169525097</v>
+      </c>
+      <c r="BG14">
+        <v>12.142415261268599</v>
+      </c>
+      <c r="BH14">
+        <v>4.0032829761505102</v>
+      </c>
+      <c r="BI14" s="3">
+        <f t="shared" si="8"/>
+        <v>34.706114101409881</v>
+      </c>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="2"/>
+      <c r="BU14">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2246,7 +2951,7 @@
         <v>165.44333272390901</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1039.2864632638959</v>
       </c>
       <c r="H15">
@@ -2265,7 +2970,7 @@
         <v>1.9319173574447599</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.024655866622787</v>
       </c>
       <c r="N15" s="2">
@@ -2284,7 +2989,7 @@
         <v>168.49066569943801</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1026.931433326318</v>
       </c>
       <c r="T15" s="2">
@@ -2303,7 +3008,7 @@
         <v>3.4363976240157998</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.008878064155539</v>
       </c>
       <c r="Z15" s="2"/>
@@ -2311,26 +3016,83 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="5"/>
+      <c r="AE15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
+      <c r="AK15" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="2"/>
-      <c r="AW15">
-        <f t="shared" si="4"/>
+      <c r="AQ15" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="3">
+        <f>SUM(AR15:AV15)</f>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>154.15981694475701</v>
+      </c>
+      <c r="AY15">
+        <v>179.98771894786299</v>
+      </c>
+      <c r="AZ15">
+        <v>193.72975940217401</v>
+      </c>
+      <c r="BA15">
+        <v>223.07960769595601</v>
+      </c>
+      <c r="BB15">
+        <v>203.96616199574001</v>
+      </c>
+      <c r="BC15" s="5">
+        <f t="shared" si="7"/>
+        <v>954.92306498649009</v>
+      </c>
+      <c r="BD15">
+        <v>2.8945992708206099</v>
+      </c>
+      <c r="BE15">
+        <v>10.125803351402199</v>
+      </c>
+      <c r="BF15">
+        <v>8.3951948404312091</v>
+      </c>
+      <c r="BG15">
+        <v>9.8621416568756093</v>
+      </c>
+      <c r="BH15">
+        <v>5.69464719295501</v>
+      </c>
+      <c r="BI15" s="3">
+        <f t="shared" si="8"/>
+        <v>36.972386312484637</v>
+      </c>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="2"/>
+      <c r="BU15">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +3112,7 @@
         <v>186.95126921689999</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1013.10492503307</v>
       </c>
       <c r="H16">
@@ -2369,7 +3131,7 @@
         <v>1.7905999898910501</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.302021074295013</v>
       </c>
       <c r="N16" s="2">
@@ -2388,7 +3150,7 @@
         <v>157.00160565636</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>962.55458656191308</v>
       </c>
       <c r="T16" s="2">
@@ -2407,7 +3169,7 @@
         <v>4.5744156122207604</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68.697053098678566</v>
       </c>
       <c r="Z16" s="2"/>
@@ -2415,26 +3177,88 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="5"/>
+      <c r="AE16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
+      <c r="AK16" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
+      <c r="AQ16" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR16" s="2"/>
-      <c r="AW16">
-        <f t="shared" si="4"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>209.47544395263799</v>
+      </c>
+      <c r="AY16">
+        <v>122.70776287405</v>
+      </c>
+      <c r="AZ16">
+        <v>177.46622666951899</v>
+      </c>
+      <c r="BA16">
+        <v>274.892661988626</v>
+      </c>
+      <c r="BB16">
+        <v>200.288763819368</v>
+      </c>
+      <c r="BC16" s="5">
+        <f t="shared" si="7"/>
+        <v>984.830859304201</v>
+      </c>
+      <c r="BD16">
+        <v>9.6403618574142396</v>
+      </c>
+      <c r="BE16">
+        <v>5.0469834566116303</v>
+      </c>
+      <c r="BF16">
+        <v>8.5123889684677092</v>
+      </c>
+      <c r="BG16">
+        <v>60.347579288482599</v>
+      </c>
+      <c r="BH16">
+        <v>3.3278852224349902</v>
+      </c>
+      <c r="BI16" s="3">
+        <f t="shared" si="8"/>
+        <v>86.875198793411158</v>
+      </c>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="2"/>
+      <c r="BU16">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +3278,7 @@
         <v>152.961126160129</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1028.7778194626922</v>
       </c>
       <c r="H17">
@@ -2473,7 +3297,7 @@
         <v>1.4598773956298801</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.97586321830747</v>
       </c>
       <c r="N17" s="2">
@@ -2492,7 +3316,7 @@
         <v>115.566897157905</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1010.550660499679</v>
       </c>
       <c r="T17" s="2">
@@ -2511,7 +3335,7 @@
         <v>1.0704200029373101</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.788391184806802</v>
       </c>
       <c r="Z17" s="2"/>
@@ -2519,26 +3343,88 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="5"/>
+      <c r="AE17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
+      <c r="AK17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
+      <c r="AQ17" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR17" s="2"/>
-      <c r="AW17">
-        <f t="shared" si="4"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>255.03155596785001</v>
+      </c>
+      <c r="AY17">
+        <v>153.274802852101</v>
+      </c>
+      <c r="AZ17">
+        <v>201.234408199353</v>
+      </c>
+      <c r="BA17">
+        <v>217.77063368948899</v>
+      </c>
+      <c r="BB17">
+        <v>152.961126160129</v>
+      </c>
+      <c r="BC17" s="5">
+        <f t="shared" si="7"/>
+        <v>980.27252686892189</v>
+      </c>
+      <c r="BD17">
+        <v>4.7898680686950597</v>
+      </c>
+      <c r="BE17">
+        <v>4.7060689687728798</v>
+      </c>
+      <c r="BF17">
+        <v>4.2889524698257402</v>
+      </c>
+      <c r="BG17">
+        <v>5.3304991960525498</v>
+      </c>
+      <c r="BH17">
+        <v>1.9299154758453301</v>
+      </c>
+      <c r="BI17" s="3">
+        <f t="shared" si="8"/>
+        <v>21.045304179191561</v>
+      </c>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="2"/>
+      <c r="BU17">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +3444,7 @@
         <v>129.97527882692901</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1075.8070355367361</v>
       </c>
       <c r="H18">
@@ -2577,7 +3463,7 @@
         <v>0.61537797451019205</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.045329022407483</v>
       </c>
       <c r="N18" s="2">
@@ -2596,7 +3482,7 @@
         <v>71.054083775364404</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>892.81762928635248</v>
       </c>
       <c r="T18" s="2">
@@ -2615,7 +3501,7 @@
         <v>0.42658348083496</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.700722789764278</v>
       </c>
       <c r="Z18" s="2"/>
@@ -2623,26 +3509,88 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="5"/>
+      <c r="AE18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="AK18" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
+      <c r="AQ18" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR18" s="2"/>
-      <c r="AW18">
-        <f t="shared" si="4"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>121.91028772329101</v>
+      </c>
+      <c r="AY18">
+        <v>139.64886821887001</v>
+      </c>
+      <c r="AZ18">
+        <v>255.510506326995</v>
+      </c>
+      <c r="BA18">
+        <v>317.28477466988397</v>
+      </c>
+      <c r="BB18">
+        <v>71.054083775364404</v>
+      </c>
+      <c r="BC18" s="5">
+        <f t="shared" si="7"/>
+        <v>905.4085207144044</v>
+      </c>
+      <c r="BD18">
+        <v>1.7158150196075399</v>
+      </c>
+      <c r="BE18">
+        <v>2.4106436014175401</v>
+      </c>
+      <c r="BF18">
+        <v>13.6441696166992</v>
+      </c>
+      <c r="BG18">
+        <v>23.0484363079071</v>
+      </c>
+      <c r="BH18">
+        <v>0.71122369766235305</v>
+      </c>
+      <c r="BI18" s="3">
+        <f t="shared" si="8"/>
+        <v>41.530288243293732</v>
+      </c>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="2"/>
+      <c r="BU18">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2662,7 +3610,7 @@
         <v>152.961126160129</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1028.4234255423501</v>
       </c>
       <c r="H19">
@@ -2681,7 +3629,7 @@
         <v>1.67858715057373</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.130878233909531</v>
       </c>
       <c r="N19" s="2">
@@ -2700,7 +3648,7 @@
         <v>115.566897157905</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>965.95627218711411</v>
       </c>
       <c r="T19" s="2">
@@ -2719,7 +3667,7 @@
         <v>1.2469570636749201</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.109723663330016</v>
       </c>
       <c r="Z19" s="2"/>
@@ -2727,26 +3675,88 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="5"/>
+      <c r="AE19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
+      <c r="AK19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
+      <c r="AQ19" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR19" s="2"/>
-      <c r="AW19">
-        <f t="shared" si="4"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>171.64341002549</v>
+      </c>
+      <c r="AY19">
+        <v>153.06827551576001</v>
+      </c>
+      <c r="AZ19">
+        <v>245.98456547815201</v>
+      </c>
+      <c r="BA19">
+        <v>234.51523448165599</v>
+      </c>
+      <c r="BB19">
+        <v>115.566897157905</v>
+      </c>
+      <c r="BC19" s="5">
+        <f t="shared" si="7"/>
+        <v>920.77838265896298</v>
+      </c>
+      <c r="BD19">
+        <v>4.0179288864135696</v>
+      </c>
+      <c r="BE19">
+        <v>10.497101783752401</v>
+      </c>
+      <c r="BF19">
+        <v>5.7385233879089297</v>
+      </c>
+      <c r="BG19">
+        <v>10.439405155181801</v>
+      </c>
+      <c r="BH19">
+        <v>1.6903026819229101</v>
+      </c>
+      <c r="BI19" s="3">
+        <f t="shared" si="8"/>
+        <v>32.383261895179608</v>
+      </c>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="2"/>
+      <c r="BU19">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +3776,7 @@
         <v>152.961126160129</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1025.7109014795881</v>
       </c>
       <c r="H20">
@@ -2785,7 +3795,7 @@
         <v>1.9906561851501401</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.219599413871737</v>
       </c>
       <c r="N20" s="2">
@@ -2804,7 +3814,7 @@
         <v>107.984927868296</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>933.66472284044903</v>
       </c>
       <c r="T20" s="2">
@@ -2823,7 +3833,7 @@
         <v>1.3861005544662399</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.494111752510037</v>
       </c>
       <c r="Z20" s="2"/>
@@ -2831,26 +3841,88 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="5"/>
+      <c r="AE20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
+      <c r="AK20" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL20" s="2"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
+      <c r="AQ20" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR20" s="2"/>
-      <c r="AW20">
-        <f t="shared" si="4"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>255.03155596785001</v>
+      </c>
+      <c r="AY20">
+        <v>153.10575474694599</v>
+      </c>
+      <c r="AZ20">
+        <v>201.234408199353</v>
+      </c>
+      <c r="BA20">
+        <v>215.15452526107899</v>
+      </c>
+      <c r="BB20">
+        <v>152.961126160129</v>
+      </c>
+      <c r="BC20" s="5">
+        <f t="shared" si="7"/>
+        <v>977.48737033535701</v>
+      </c>
+      <c r="BD20">
+        <v>6.9872960567474296</v>
+      </c>
+      <c r="BE20">
+        <v>6.06264727115631</v>
+      </c>
+      <c r="BF20">
+        <v>6.0962523221969596</v>
+      </c>
+      <c r="BG20">
+        <v>9.3334361314773506</v>
+      </c>
+      <c r="BH20">
+        <v>2.4319459438323898</v>
+      </c>
+      <c r="BI20" s="3">
+        <f t="shared" si="8"/>
+        <v>30.911577725410439</v>
+      </c>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="2"/>
+      <c r="BU20">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2870,7 +3942,7 @@
         <v>191.76215190203999</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1700.9754691220448</v>
       </c>
       <c r="H21">
@@ -2889,7 +3961,7 @@
         <v>1.2135075092315599</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.495543456077565</v>
       </c>
       <c r="N21">
@@ -2908,7 +3980,7 @@
         <v>138.818193341615</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1587.718267244202</v>
       </c>
       <c r="T21">
@@ -2927,7 +3999,7 @@
         <v>1.5042830944061201</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.0866687774658</v>
       </c>
       <c r="Z21" s="2"/>
@@ -2935,26 +4007,68 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="5"/>
+      <c r="AE21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
+      <c r="AK21" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL21" s="2"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
+      <c r="AQ21" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR21" s="2"/>
-      <c r="AW21">
-        <f t="shared" si="4"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="2"/>
+      <c r="BU21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +4088,7 @@
         <v>200.260347301943</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1640.2732965010209</v>
       </c>
       <c r="H22">
@@ -2993,7 +4107,7 @@
         <v>1.3720111846923799</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.044734716415388</v>
       </c>
       <c r="N22">
@@ -3012,7 +4126,7 @@
         <v>267.71425545718802</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1527.6554537785482</v>
       </c>
       <c r="T22">
@@ -3031,7 +4145,7 @@
         <v>2.9356721162796</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.563939309120119</v>
       </c>
       <c r="Z22" s="2"/>
@@ -3039,26 +4153,68 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="5"/>
+      <c r="AE22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
+      <c r="AK22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL22" s="2"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
+      <c r="AQ22" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR22" s="2"/>
-      <c r="AW22">
-        <f t="shared" si="4"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="2"/>
+      <c r="BU22">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3078,7 +4234,7 @@
         <v>159.88178012719899</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1456.9802658401838</v>
       </c>
       <c r="H23">
@@ -3097,7 +4253,7 @@
         <v>1.0302213430404601</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.263992786407446</v>
       </c>
       <c r="N23">
@@ -3116,7 +4272,7 @@
         <v>149.532306694402</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1365.583111436162</v>
       </c>
       <c r="T23">
@@ -3135,7 +4291,7 @@
         <v>1.29837589263916</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.712682366371059</v>
       </c>
       <c r="Z23" s="2"/>
@@ -3143,26 +4299,68 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="5"/>
+      <c r="AE23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
+      <c r="AK23" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL23" s="2"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
+      <c r="AQ23" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR23" s="2"/>
-      <c r="AW23">
-        <f t="shared" si="4"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="2"/>
+      <c r="BU23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3182,7 +4380,7 @@
         <v>141.08291295545001</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1099.375391859073</v>
       </c>
       <c r="H24">
@@ -3201,7 +4399,7 @@
         <v>0.93694181442260704</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.142536258697415</v>
       </c>
       <c r="N24">
@@ -3220,7 +4418,7 @@
         <v>135.32683348555699</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1054.336670799082</v>
       </c>
       <c r="T24">
@@ -3239,7 +4437,7 @@
         <v>1.54419405460357</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.636747312545722</v>
       </c>
       <c r="Z24" s="2"/>
@@ -3247,26 +4445,68 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="5"/>
+      <c r="AE24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
+      <c r="AK24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL24" s="2"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
+      <c r="AQ24" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR24" s="2"/>
-      <c r="AW24">
-        <f t="shared" si="4"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="2"/>
+      <c r="BU24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3286,7 +4526,7 @@
         <v>120.938932749099</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1340.2135643045149</v>
       </c>
       <c r="H25">
@@ -3305,7 +4545,7 @@
         <v>0.69160411357879603</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.727666115760785</v>
       </c>
       <c r="N25">
@@ -3324,7 +4564,7 @@
         <v>97.211201382527307</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1324.3555768424753</v>
       </c>
       <c r="T25">
@@ -3343,7 +4583,7 @@
         <v>0.905289030075073</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.31383686065664</v>
       </c>
       <c r="Z25" s="2"/>
@@ -3351,26 +4591,68 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="5"/>
+      <c r="AE25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
+      <c r="AK25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL25" s="2"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
+      <c r="AQ25" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR25" s="2"/>
-      <c r="AW25">
-        <f t="shared" si="4"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="2"/>
+      <c r="BU25">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3390,7 +4672,7 @@
         <v>199.04036375376299</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1296.5059834197079</v>
       </c>
       <c r="H26">
@@ -3409,7 +4691,7 @@
         <v>1.38931014537811</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.819362759590081</v>
       </c>
       <c r="N26">
@@ -3427,8 +4709,8 @@
       <c r="R26">
         <v>192.738990361568</v>
       </c>
-      <c r="S26" s="13">
-        <f t="shared" si="2"/>
+      <c r="S26" s="12">
+        <f t="shared" si="3"/>
         <v>1329.2923845082905</v>
       </c>
       <c r="T26">
@@ -3447,34 +4729,136 @@
         <v>1.7851018667220999</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.824234175681962</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="2"/>
-      <c r="AW26">
-        <f t="shared" si="4"/>
+      <c r="Z26">
+        <v>207.76084254760599</v>
+      </c>
+      <c r="AA26">
+        <v>436.95469758157998</v>
+      </c>
+      <c r="AB26">
+        <v>57.717229524138297</v>
+      </c>
+      <c r="AC26">
+        <v>489.16398034839801</v>
+      </c>
+      <c r="AD26">
+        <v>211.766344279549</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" si="5"/>
+        <v>1403.3630942812713</v>
+      </c>
+      <c r="AF26">
+        <v>3.2042090654373099</v>
+      </c>
+      <c r="AG26">
+        <v>4.5685678005218504</v>
+      </c>
+      <c r="AH26">
+        <v>0.57878229618072496</v>
+      </c>
+      <c r="AI26">
+        <v>18.347091341018601</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2815885066986001</v>
+      </c>
+      <c r="AK26" s="3">
+        <f t="shared" si="6"/>
+        <v>28.980239009857087</v>
+      </c>
+      <c r="AL26">
+        <v>217.199137022526</v>
+      </c>
+      <c r="AM26">
+        <v>412.36068305056602</v>
+      </c>
+      <c r="AN26">
+        <v>68.536601015313906</v>
+      </c>
+      <c r="AO26">
+        <v>421.11347982908001</v>
+      </c>
+      <c r="AP26">
+        <v>211.766344279549</v>
+      </c>
+      <c r="AQ26" s="5">
+        <f t="shared" si="11"/>
+        <v>1330.9762451970348</v>
+      </c>
+      <c r="AR26">
+        <v>3.6275955915450999</v>
+      </c>
+      <c r="AS26">
+        <v>4.4328388452529897</v>
+      </c>
+      <c r="AT26">
+        <v>0.78531858921051001</v>
+      </c>
+      <c r="AU26">
+        <v>14.0302715063095</v>
+      </c>
+      <c r="AV26">
+        <v>2.1012614011764499</v>
+      </c>
+      <c r="AW26" s="3">
+        <f t="shared" si="10"/>
+        <v>24.977285933494549</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>217.199137022526</v>
+      </c>
+      <c r="AY26">
+        <v>412.36068305056602</v>
+      </c>
+      <c r="AZ26">
+        <v>68.536601015313906</v>
+      </c>
+      <c r="BA26">
+        <v>421.11347982908001</v>
+      </c>
+      <c r="BB26">
+        <v>211.766344279549</v>
+      </c>
+      <c r="BC26" s="5">
+        <f t="shared" si="7"/>
+        <v>1330.9762451970348</v>
+      </c>
+      <c r="BD26">
+        <v>3.6275955915450999</v>
+      </c>
+      <c r="BE26">
+        <v>4.4328388452529897</v>
+      </c>
+      <c r="BF26">
+        <v>0.78531858921051001</v>
+      </c>
+      <c r="BG26">
+        <v>14.0302715063095</v>
+      </c>
+      <c r="BH26">
+        <v>2.1012614011764499</v>
+      </c>
+      <c r="BI26" s="3">
+        <f t="shared" si="8"/>
+        <v>24.977285933494549</v>
+      </c>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="2"/>
+      <c r="BU26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3494,7 +4878,7 @@
         <v>292.50653361521802</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1351.5471639928378</v>
       </c>
       <c r="H27">
@@ -3513,7 +4897,7 @@
         <v>1.72338426113128</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.645011711120564</v>
       </c>
       <c r="N27">
@@ -3532,7 +4916,7 @@
         <v>283.916789776521</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1377.0377555334298</v>
       </c>
       <c r="T27">
@@ -3551,7 +4935,7 @@
         <v>2.6298358201980498</v>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.005376100540079</v>
       </c>
       <c r="Z27" s="2"/>
@@ -3559,26 +4943,59 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="5"/>
+      <c r="AE27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
+      <c r="AK27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR27" s="2"/>
-      <c r="AW27">
-        <f t="shared" si="4"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX27" s="2"/>
+      <c r="BC27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="2"/>
+      <c r="BU27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3598,7 +5015,7 @@
         <v>194.373232552513</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1164.7819470922639</v>
       </c>
       <c r="H28">
@@ -3617,7 +5034,7 @@
         <v>0.98446700572967505</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.068307137489281</v>
       </c>
       <c r="N28">
@@ -3636,7 +5053,7 @@
         <v>97.608525881077995</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1088.8826185899327</v>
       </c>
       <c r="T28">
@@ -3655,7 +5072,7 @@
         <v>1.0087560892105101</v>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.764685583114531</v>
       </c>
       <c r="Z28" s="2"/>
@@ -3663,26 +5080,68 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="5"/>
+      <c r="AE28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
+      <c r="AK28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL28" s="2"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
+      <c r="AQ28" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR28" s="2"/>
-      <c r="AW28">
-        <f t="shared" si="4"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="2"/>
+      <c r="BU28">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3702,7 +5161,7 @@
         <v>220.13567514613999</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1426.1635281944777</v>
       </c>
       <c r="H29">
@@ -3721,7 +5180,7 @@
         <v>1.3832284688949501</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.758595252037026</v>
       </c>
       <c r="N29">
@@ -3740,7 +5199,7 @@
         <v>180.503507888332</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1398.1980775162801</v>
       </c>
       <c r="T29">
@@ -3759,7 +5218,7 @@
         <v>1.9636747837066599</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.257002401351823</v>
       </c>
       <c r="Z29" s="2"/>
@@ -3767,26 +5226,68 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="5"/>
+      <c r="AE29" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
+      <c r="AK29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL29" s="2"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
+      <c r="AQ29" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR29" s="2"/>
-      <c r="AW29">
-        <f t="shared" si="4"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="2"/>
+      <c r="BU29">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3806,7 +5307,7 @@
         <v>126.80819712988099</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1136.8572423227988</v>
       </c>
       <c r="H30">
@@ -3825,7 +5326,7 @@
         <v>1.1576059818267801</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.732582616806017</v>
       </c>
       <c r="N30">
@@ -3843,8 +5344,8 @@
       <c r="R30">
         <v>156.392119098053</v>
       </c>
-      <c r="S30" s="13">
-        <f t="shared" si="2"/>
+      <c r="S30" s="12">
+        <f t="shared" si="3"/>
         <v>1185.0583359364864</v>
       </c>
       <c r="T30">
@@ -3863,7 +5364,7 @@
         <v>1.8050683021545399</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.069766163825925</v>
       </c>
       <c r="Z30" s="2"/>
@@ -3871,26 +5372,68 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="5"/>
+      <c r="AE30" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
+      <c r="AK30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL30" s="2"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
+      <c r="AQ30" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR30" s="2"/>
-      <c r="AW30">
-        <f t="shared" si="4"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="2"/>
+      <c r="BU30">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3910,7 +5453,7 @@
         <v>178.13602629357499</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1206.6931874073948</v>
       </c>
       <c r="H31">
@@ -3929,7 +5472,7 @@
         <v>0.97760121822357104</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.763704800605762</v>
       </c>
       <c r="N31" s="2"/>
@@ -3938,7 +5481,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T31" s="2"/>
@@ -3947,7 +5490,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z31" s="2"/>
@@ -3955,26 +5498,68 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="5"/>
+      <c r="AE31" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
+      <c r="AK31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL31" s="2"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
+      <c r="AQ31" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR31" s="2"/>
-      <c r="AW31">
-        <f t="shared" si="4"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="2"/>
+      <c r="BU31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +5579,7 @@
         <v>177.55821264805701</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1239.6523464271829</v>
       </c>
       <c r="H32">
@@ -4013,7 +5598,7 @@
         <v>1.0527856111526399</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.544930005073478</v>
       </c>
       <c r="N32" s="2"/>
@@ -4022,7 +5607,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T32" s="2"/>
@@ -4031,7 +5616,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z32" s="2"/>
@@ -4039,26 +5624,68 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="5"/>
+      <c r="AE32" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
+      <c r="AK32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
+      <c r="AQ32" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR32" s="2"/>
-      <c r="AW32">
-        <f t="shared" si="4"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+      <c r="BO32" s="3"/>
+      <c r="BP32" s="2"/>
+      <c r="BU32">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4078,7 +5705,7 @@
         <v>163.572197532601</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1423.5931280081529</v>
       </c>
       <c r="H33">
@@ -4097,7 +5724,7 @@
         <v>1.08075559139251</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.088377451896573</v>
       </c>
       <c r="N33" s="2"/>
@@ -4106,7 +5733,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T33" s="2"/>
@@ -4115,7 +5742,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z33" s="2"/>
@@ -4123,26 +5750,68 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="5"/>
+      <c r="AE33" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
+      <c r="AK33" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
+      <c r="AQ33" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR33" s="2"/>
-      <c r="AW33">
-        <f t="shared" si="4"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+      <c r="BO33" s="3"/>
+      <c r="BP33" s="2"/>
+      <c r="BU33">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4162,7 +5831,7 @@
         <v>125.12396970734601</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1539.5309319616576</v>
       </c>
       <c r="H34">
@@ -4181,7 +5850,7 @@
         <v>0.413281345367431</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.568624877929523</v>
       </c>
       <c r="N34" s="2"/>
@@ -4190,7 +5859,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T34" s="2"/>
@@ -4199,7 +5868,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z34" s="2"/>
@@ -4207,26 +5876,68 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="5"/>
+      <c r="AE34" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
+      <c r="AK34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
+      <c r="AQ34" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR34" s="2"/>
-      <c r="AW34">
-        <f t="shared" si="4"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="2"/>
+      <c r="BU34">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -4246,7 +5957,7 @@
         <v>99.011563715914207</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1403.8222261683309</v>
       </c>
       <c r="H35">
@@ -4265,7 +5976,7 @@
         <v>0.65681362152099598</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.401388144493055</v>
       </c>
       <c r="N35" s="2"/>
@@ -4274,7 +5985,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T35" s="2"/>
@@ -4283,7 +5994,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z35" s="2"/>
@@ -4291,26 +6002,68 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
-      <c r="AE35" s="5"/>
+      <c r="AE35" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
+      <c r="AK35" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL35" s="2"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
+      <c r="AQ35" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR35" s="2"/>
-      <c r="AW35">
-        <f t="shared" si="4"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="2"/>
+      <c r="BU35">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4330,7 +6083,7 @@
         <v>107.08189412704</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1301.6663194320299</v>
       </c>
       <c r="H36">
@@ -4349,7 +6102,7 @@
         <v>0.44311192035675001</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>257.50304024219452</v>
       </c>
       <c r="N36" s="2"/>
@@ -4358,7 +6111,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T36" s="2"/>
@@ -4367,7 +6120,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z36" s="2"/>
@@ -4375,26 +6128,68 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="5"/>
+      <c r="AE36" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
+      <c r="AK36" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL36" s="2"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
+      <c r="AQ36" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR36" s="2"/>
-      <c r="AW36">
-        <f t="shared" si="4"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="2"/>
+      <c r="BU36">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4404,7 +6199,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" s="2"/>
@@ -4413,7 +6208,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N37" s="2"/>
@@ -4422,7 +6217,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T37" s="2"/>
@@ -4431,7 +6226,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z37" s="2"/>
@@ -4439,26 +6234,68 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="5"/>
+      <c r="AE37" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
+      <c r="AK37" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL37" s="2"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
-      <c r="AQ37" s="3"/>
+      <c r="AQ37" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR37" s="2"/>
-      <c r="AW37">
-        <f t="shared" si="4"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="2"/>
+      <c r="BU37">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4468,7 +6305,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="2"/>
@@ -4477,7 +6314,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N38" s="2"/>
@@ -4486,7 +6323,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T38" s="2"/>
@@ -4495,7 +6332,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z38" s="2"/>
@@ -4503,26 +6340,68 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="5"/>
+      <c r="AE38" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
+      <c r="AK38" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
+      <c r="AQ38" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR38" s="2"/>
-      <c r="AW38">
-        <f t="shared" si="4"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="2"/>
+      <c r="BU38">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4532,7 +6411,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="2"/>
@@ -4541,7 +6420,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N39" s="2"/>
@@ -4550,7 +6429,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T39" s="2"/>
@@ -4559,7 +6438,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z39" s="2"/>
@@ -4567,26 +6446,68 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="5"/>
+      <c r="AE39" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
+      <c r="AK39" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL39" s="2"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
+      <c r="AQ39" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR39" s="2"/>
-      <c r="AW39">
-        <f t="shared" si="4"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="2"/>
+      <c r="BU39">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4596,7 +6517,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="2"/>
@@ -4605,7 +6526,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N40" s="2"/>
@@ -4614,7 +6535,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T40" s="2"/>
@@ -4623,7 +6544,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z40" s="2"/>
@@ -4631,26 +6552,68 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="5"/>
+      <c r="AE40" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF40" s="2"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
+      <c r="AK40" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL40" s="2"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
+      <c r="AQ40" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR40" s="2"/>
-      <c r="AW40">
-        <f t="shared" si="4"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="2"/>
+      <c r="BU40">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4660,7 +6623,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="2"/>
@@ -4669,7 +6632,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="2"/>
@@ -4678,7 +6641,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T41" s="2"/>
@@ -4687,7 +6650,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z41" s="2"/>
@@ -4695,26 +6658,68 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="5"/>
+      <c r="AE41" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
+      <c r="AK41" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL41" s="2"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
+      <c r="AQ41" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR41" s="2"/>
-      <c r="AW41">
-        <f t="shared" si="4"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="2"/>
+      <c r="BU41">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4724,7 +6729,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="2"/>
@@ -4733,7 +6738,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N42" s="2"/>
@@ -4742,7 +6747,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T42" s="2"/>
@@ -4751,7 +6756,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z42" s="2"/>
@@ -4759,26 +6764,68 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="5"/>
+      <c r="AE42" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
+      <c r="AK42" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL42" s="2"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
+      <c r="AQ42" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR42" s="2"/>
-      <c r="AW42">
-        <f t="shared" si="4"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="2"/>
+      <c r="BU42">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4788,7 +6835,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="2"/>
@@ -4797,7 +6844,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
@@ -4806,7 +6853,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T43" s="2"/>
@@ -4815,7 +6862,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z43" s="2"/>
@@ -4823,346 +6870,1098 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="5"/>
+      <c r="AE43" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
+      <c r="AK43" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AL43" s="2"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
+      <c r="AQ43" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AR43" s="2"/>
-      <c r="AW43">
-        <f t="shared" si="4"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="2"/>
+      <c r="BU43">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="2">
+        <v>324.73671905238001</v>
+      </c>
+      <c r="C44">
+        <v>248.99699321835999</v>
+      </c>
+      <c r="D44">
+        <v>159.81586031360001</v>
+      </c>
+      <c r="E44">
+        <v>453.816942132843</v>
+      </c>
+      <c r="F44">
+        <v>321.33869910713599</v>
+      </c>
       <c r="G44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1508.7052138243189</v>
+      </c>
+      <c r="H44">
+        <v>3.3689642667770299</v>
+      </c>
+      <c r="I44">
+        <v>3.2260609149932802</v>
+      </c>
+      <c r="J44">
+        <v>1.9054803848266599</v>
+      </c>
+      <c r="K44">
+        <v>6.8724974393844596</v>
+      </c>
+      <c r="L44">
+        <v>3.4321301698684601</v>
+      </c>
       <c r="M44" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+        <f t="shared" si="2"/>
+        <v>18.805133175849893</v>
+      </c>
+      <c r="N44">
+        <v>336.779473386002</v>
+      </c>
+      <c r="O44">
+        <v>259.779478177003</v>
+      </c>
+      <c r="P44">
+        <v>159.81586031360001</v>
+      </c>
+      <c r="Q44">
+        <v>482.25950315479002</v>
+      </c>
+      <c r="R44">
+        <v>262.72606222791097</v>
+      </c>
       <c r="S44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="2"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
+        <f t="shared" si="3"/>
+        <v>1501.360377259306</v>
+      </c>
+      <c r="T44" s="2">
+        <v>8.5623689174652107</v>
+      </c>
+      <c r="U44">
+        <v>8.0685289382934506</v>
+      </c>
+      <c r="V44">
+        <v>4.4155152320861797</v>
+      </c>
+      <c r="W44">
+        <v>16.9563790559768</v>
+      </c>
+      <c r="X44">
+        <v>7.0633869171142498</v>
+      </c>
       <c r="Y44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="2"/>
-      <c r="AW44">
         <f t="shared" si="4"/>
+        <v>45.066179060935887</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>277.12965732388102</v>
+      </c>
+      <c r="AA44">
+        <v>736.75966965886801</v>
+      </c>
+      <c r="AB44">
+        <v>254.228538116902</v>
+      </c>
+      <c r="AC44">
+        <v>389.167911128958</v>
+      </c>
+      <c r="AD44">
+        <v>346.27101315704198</v>
+      </c>
+      <c r="AE44" s="5">
+        <f t="shared" si="5"/>
+        <v>2003.556789385651</v>
+      </c>
+      <c r="AF44">
+        <v>2.2416480779647801</v>
+      </c>
+      <c r="AG44">
+        <v>6.3338173389434802</v>
+      </c>
+      <c r="AH44">
+        <v>2.2089238882064799</v>
+      </c>
+      <c r="AI44">
+        <v>4.6080939769744802</v>
+      </c>
+      <c r="AJ44">
+        <v>3.53123927116394</v>
+      </c>
+      <c r="AK44" s="3">
+        <f t="shared" si="6"/>
+        <v>18.92372255325316</v>
+      </c>
+      <c r="AL44" s="2">
+        <v>336.779473386002</v>
+      </c>
+      <c r="AM44">
+        <v>378.41980627951398</v>
+      </c>
+      <c r="AN44">
+        <v>159.81586031360001</v>
+      </c>
+      <c r="AO44">
+        <v>430.26413274219101</v>
+      </c>
+      <c r="AP44">
+        <v>262.72606222791097</v>
+      </c>
+      <c r="AQ44" s="5">
+        <f t="shared" si="11"/>
+        <v>1568.0053349492177</v>
+      </c>
+      <c r="AR44">
+        <v>3.4758090972900302</v>
+      </c>
+      <c r="AS44">
+        <v>4.1644000291824304</v>
+      </c>
+      <c r="AT44">
+        <v>1.86790471076965</v>
+      </c>
+      <c r="AU44">
+        <v>5.7026555776596002</v>
+      </c>
+      <c r="AV44">
+        <v>2.96253113746643</v>
+      </c>
+      <c r="AW44" s="3">
+        <f t="shared" si="10"/>
+        <v>18.17330055236814</v>
+      </c>
+      <c r="AX44" s="2">
+        <v>271.65705267665197</v>
+      </c>
+      <c r="AY44">
+        <v>346.97199372044503</v>
+      </c>
+      <c r="AZ44">
+        <v>159.81586031360001</v>
+      </c>
+      <c r="BA44">
+        <v>559.52950564856098</v>
+      </c>
+      <c r="BB44">
+        <v>262.72606222791097</v>
+      </c>
+      <c r="BC44" s="5">
+        <f t="shared" si="7"/>
+        <v>1600.7004745871691</v>
+      </c>
+      <c r="BD44">
+        <v>2.70844893455505</v>
+      </c>
+      <c r="BE44">
+        <v>3.2132509946823098</v>
+      </c>
+      <c r="BF44">
+        <v>1.7161518335342401</v>
+      </c>
+      <c r="BG44">
+        <v>7.1020629405975297</v>
+      </c>
+      <c r="BH44">
+        <v>2.7851715326309199</v>
+      </c>
+      <c r="BI44" s="3">
+        <f t="shared" si="8"/>
+        <v>17.52508623600005</v>
+      </c>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="3"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
+      <c r="BO44" s="3"/>
+      <c r="BP44" s="2"/>
+      <c r="BU44">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>347.95036789878998</v>
+      </c>
+      <c r="C45">
+        <v>229.31724369719899</v>
+      </c>
+      <c r="D45">
+        <v>100.98528297686499</v>
+      </c>
+      <c r="E45">
+        <v>488.826712051843</v>
+      </c>
+      <c r="F45">
+        <v>259.03601938656698</v>
+      </c>
       <c r="G45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1426.1156260112639</v>
+      </c>
+      <c r="H45">
+        <v>4.35925903320312</v>
+      </c>
+      <c r="I45">
+        <v>3.2255076885223302</v>
+      </c>
+      <c r="J45">
+        <v>1.5770210981368999</v>
+      </c>
+      <c r="K45">
+        <v>8.8425183057784995</v>
+      </c>
+      <c r="L45">
+        <v>3.2026550292968698</v>
+      </c>
       <c r="M45" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+        <f t="shared" si="2"/>
+        <v>21.206961154937723</v>
+      </c>
+      <c r="N45">
+        <v>229.26956547669701</v>
+      </c>
+      <c r="O45">
+        <v>281.87867490009103</v>
+      </c>
+      <c r="P45">
+        <v>80.454096472162306</v>
+      </c>
+      <c r="Q45">
+        <v>630.99618656341602</v>
+      </c>
+      <c r="R45">
+        <v>259.03601938656698</v>
+      </c>
       <c r="S45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="2"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
+        <f t="shared" si="3"/>
+        <v>1481.6345427989334</v>
+      </c>
+      <c r="T45" s="2">
+        <v>9.8331169366836502</v>
+      </c>
+      <c r="U45">
+        <v>8.6710576295852597</v>
+      </c>
+      <c r="V45">
+        <v>3.1665083646774201</v>
+      </c>
+      <c r="W45">
+        <v>29.513715267181301</v>
+      </c>
+      <c r="X45">
+        <v>8.08989369869232</v>
+      </c>
       <c r="Y45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="2"/>
-      <c r="AW45">
         <f t="shared" si="4"/>
+        <v>59.274291896819946</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>294.07440697700201</v>
+      </c>
+      <c r="AA45">
+        <v>285.380366068152</v>
+      </c>
+      <c r="AB45">
+        <v>80.454096472162306</v>
+      </c>
+      <c r="AC45">
+        <v>630.15738051153801</v>
+      </c>
+      <c r="AD45">
+        <v>203.78145265830599</v>
+      </c>
+      <c r="AE45" s="5">
+        <f t="shared" si="5"/>
+        <v>1493.8477026871606</v>
+      </c>
+      <c r="AF45">
+        <v>4.1742253065109196</v>
+      </c>
+      <c r="AG45">
+        <v>4.3771563768386796</v>
+      </c>
+      <c r="AH45">
+        <v>1.2108903169631899</v>
+      </c>
+      <c r="AI45">
+        <v>10.3383152246475</v>
+      </c>
+      <c r="AJ45">
+        <v>2.2095721244812001</v>
+      </c>
+      <c r="AK45" s="3">
+        <f t="shared" si="6"/>
+        <v>22.310159349441491</v>
+      </c>
+      <c r="AL45" s="2">
+        <v>225.98649335615099</v>
+      </c>
+      <c r="AM45">
+        <v>281.87867490009103</v>
+      </c>
+      <c r="AN45">
+        <v>100.98528297686499</v>
+      </c>
+      <c r="AO45">
+        <v>574.85081807045106</v>
+      </c>
+      <c r="AP45">
+        <v>259.03601938656698</v>
+      </c>
+      <c r="AQ45" s="5">
+        <f t="shared" si="11"/>
+        <v>1442.7372886901251</v>
+      </c>
+      <c r="AR45">
+        <v>3.4986278295516899</v>
+      </c>
+      <c r="AS45">
+        <v>3.2649870395660399</v>
+      </c>
+      <c r="AT45">
+        <v>1.48510267734527</v>
+      </c>
+      <c r="AU45">
+        <v>11.2619017362594</v>
+      </c>
+      <c r="AV45">
+        <v>2.9863023281097401</v>
+      </c>
+      <c r="AW45" s="3">
+        <f t="shared" si="10"/>
+        <v>22.496921610832139</v>
+      </c>
+      <c r="AX45" s="2">
+        <v>344.62596919853399</v>
+      </c>
+      <c r="AY45">
+        <v>215.435176742984</v>
+      </c>
+      <c r="AZ45">
+        <v>100.98528297686499</v>
+      </c>
+      <c r="BA45">
+        <v>537.29373381814196</v>
+      </c>
+      <c r="BB45">
+        <v>259.03601938656698</v>
+      </c>
+      <c r="BC45" s="5">
+        <f t="shared" si="7"/>
+        <v>1457.3761821230921</v>
+      </c>
+      <c r="BD45">
+        <v>4.58266913890838</v>
+      </c>
+      <c r="BE45">
+        <v>3.1417564392089798</v>
+      </c>
+      <c r="BF45">
+        <v>1.54346907138824</v>
+      </c>
+      <c r="BG45">
+        <v>8.4524085283279398</v>
+      </c>
+      <c r="BH45">
+        <v>3.0485909461974998</v>
+      </c>
+      <c r="BI45" s="3">
+        <f t="shared" si="8"/>
+        <v>20.768894124031039</v>
+      </c>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="2"/>
+      <c r="BU45">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="2">
+        <v>263.59357691889397</v>
+      </c>
+      <c r="C46">
+        <v>170.37450442414899</v>
+      </c>
+      <c r="D46">
+        <v>130.76253440487201</v>
+      </c>
+      <c r="E46">
+        <v>456.27559725619801</v>
+      </c>
+      <c r="F46">
+        <v>202.529359976237</v>
+      </c>
       <c r="G46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1223.53557298035</v>
+      </c>
+      <c r="H46">
+        <v>4.2106235027313197</v>
+      </c>
+      <c r="I46">
+        <v>3.43338429927825</v>
+      </c>
+      <c r="J46">
+        <v>1.82916979789733</v>
+      </c>
+      <c r="K46">
+        <v>12.620773625373801</v>
+      </c>
+      <c r="L46">
+        <v>4.1317907571792603</v>
+      </c>
       <c r="M46" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+        <f t="shared" si="2"/>
+        <v>26.225741982459962</v>
+      </c>
+      <c r="N46">
+        <v>290.60561356832</v>
+      </c>
+      <c r="O46">
+        <v>210.55195028742199</v>
+      </c>
+      <c r="P46">
+        <v>133.59044805767999</v>
+      </c>
+      <c r="Q46">
+        <v>360.57950965580397</v>
+      </c>
+      <c r="R46">
+        <v>197.16617224718499</v>
+      </c>
       <c r="S46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="2"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
+        <f t="shared" si="3"/>
+        <v>1192.4936938164108</v>
+      </c>
+      <c r="T46" s="2">
+        <v>13.590778255462601</v>
+      </c>
+      <c r="U46">
+        <v>11.0127363204956</v>
+      </c>
+      <c r="V46">
+        <v>3.9540321588516201</v>
+      </c>
+      <c r="W46">
+        <v>24.721037435531599</v>
+      </c>
+      <c r="X46">
+        <v>8.80262897014617</v>
+      </c>
       <c r="Y46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
-      <c r="AP46" s="3"/>
-      <c r="AQ46" s="3"/>
-      <c r="AR46" s="2"/>
-      <c r="AW46">
         <f t="shared" si="4"/>
+        <v>62.081213140487591</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>257.47192175779003</v>
+      </c>
+      <c r="AA46">
+        <v>129.91554798240099</v>
+      </c>
+      <c r="AB46">
+        <v>162.471818537545</v>
+      </c>
+      <c r="AC46">
+        <v>583.149638393999</v>
+      </c>
+      <c r="AD46">
+        <v>217.60970260273999</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="5"/>
+        <v>1350.6186292744751</v>
+      </c>
+      <c r="AF46">
+        <v>3.2746727943420399</v>
+      </c>
+      <c r="AG46">
+        <v>1.98442578315734</v>
+      </c>
+      <c r="AH46">
+        <v>1.7443027973175</v>
+      </c>
+      <c r="AI46">
+        <v>14.4848393201828</v>
+      </c>
+      <c r="AJ46">
+        <v>3.8089148283004701</v>
+      </c>
+      <c r="AK46" s="3">
+        <f t="shared" si="6"/>
+        <v>25.297155523300152</v>
+      </c>
+      <c r="AL46" s="2">
+        <v>273.38012733385699</v>
+      </c>
+      <c r="AM46">
+        <v>210.55195028742199</v>
+      </c>
+      <c r="AN46">
+        <v>133.79980948592899</v>
+      </c>
+      <c r="AO46">
+        <v>361.94235502381798</v>
+      </c>
+      <c r="AP46">
+        <v>232.03511821105599</v>
+      </c>
+      <c r="AQ46" s="5">
+        <f t="shared" si="11"/>
+        <v>1211.7093603420819</v>
+      </c>
+      <c r="AR46">
+        <v>5.14798758029937</v>
+      </c>
+      <c r="AS46">
+        <v>5.1144809246063199</v>
+      </c>
+      <c r="AT46">
+        <v>1.6194865226745601</v>
+      </c>
+      <c r="AU46">
+        <v>9.45907769203186</v>
+      </c>
+      <c r="AV46">
+        <v>4.02880079746246</v>
+      </c>
+      <c r="AW46" s="3">
+        <f t="shared" si="10"/>
+        <v>25.369833517074568</v>
+      </c>
+      <c r="AX46" s="2">
+        <v>252.63423358468799</v>
+      </c>
+      <c r="AY46">
+        <v>148.21036548446301</v>
+      </c>
+      <c r="AZ46">
+        <v>162.471818537545</v>
+      </c>
+      <c r="BA46">
+        <v>485.42455993323603</v>
+      </c>
+      <c r="BB46">
+        <v>202.529359976237</v>
+      </c>
+      <c r="BC46" s="5">
+        <f t="shared" si="7"/>
+        <v>1251.2703375161689</v>
+      </c>
+      <c r="BD46">
+        <v>3.8209200620651198</v>
+      </c>
+      <c r="BE46">
+        <v>2.66655712127685</v>
+      </c>
+      <c r="BF46">
+        <v>1.8093005180358801</v>
+      </c>
+      <c r="BG46">
+        <v>12.026044535636901</v>
+      </c>
+      <c r="BH46">
+        <v>3.5702030897140502</v>
+      </c>
+      <c r="BI46" s="3">
+        <f t="shared" si="8"/>
+        <v>23.893025326728797</v>
+      </c>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="3"/>
+      <c r="BL46" s="3"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="2"/>
+      <c r="BU46">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="2">
+        <v>190.27771694331301</v>
+      </c>
+      <c r="C47">
+        <v>190.614330794506</v>
+      </c>
+      <c r="D47">
+        <v>100.253073108975</v>
+      </c>
+      <c r="E47">
+        <v>371.901236558515</v>
+      </c>
+      <c r="F47">
+        <v>237.20970762971399</v>
+      </c>
       <c r="G47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1090.2560650350229</v>
+      </c>
+      <c r="H47">
+        <v>4.8624701738357503</v>
+      </c>
+      <c r="I47">
+        <v>4.09868631362915</v>
+      </c>
+      <c r="J47">
+        <v>2.4070781230926501</v>
+      </c>
+      <c r="K47">
+        <v>12.7079120635986</v>
+      </c>
+      <c r="L47">
+        <v>4.5019918680190996</v>
+      </c>
       <c r="M47" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+        <f t="shared" si="2"/>
+        <v>28.57813854217525</v>
+      </c>
+      <c r="N47">
+        <v>168.20375624394799</v>
+      </c>
+      <c r="O47">
+        <v>287.79099622940703</v>
+      </c>
+      <c r="P47">
+        <v>70.102769245761607</v>
+      </c>
+      <c r="Q47">
+        <v>320.30378666068799</v>
+      </c>
+      <c r="R47">
+        <v>172.40769772049899</v>
+      </c>
       <c r="S47" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="2"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
+        <f t="shared" si="3"/>
+        <v>1018.8090061003035</v>
+      </c>
+      <c r="T47" s="2">
+        <v>11.588964200019801</v>
+      </c>
+      <c r="U47">
+        <v>20.392505431175199</v>
+      </c>
+      <c r="V47">
+        <v>5.3226895093917799</v>
+      </c>
+      <c r="W47">
+        <v>27.820630979537899</v>
+      </c>
+      <c r="X47">
+        <v>10.194811654090801</v>
+      </c>
       <c r="Y47" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3"/>
-      <c r="AO47" s="3"/>
-      <c r="AP47" s="3"/>
-      <c r="AQ47" s="3"/>
-      <c r="AR47" s="2"/>
-      <c r="AW47">
         <f t="shared" si="4"/>
+        <v>75.319601774215471</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>266.059873030652</v>
+      </c>
+      <c r="AA47">
+        <v>191.94081479656401</v>
+      </c>
+      <c r="AB47">
+        <v>70.102769245761607</v>
+      </c>
+      <c r="AC47">
+        <v>320.30378666068799</v>
+      </c>
+      <c r="AD47">
+        <v>172.40769772049899</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="5"/>
+        <v>1020.8149414541646</v>
+      </c>
+      <c r="AF47">
+        <v>6.1773589372634801</v>
+      </c>
+      <c r="AG47">
+        <v>3.8540191173553402</v>
+      </c>
+      <c r="AH47">
+        <v>1.8693116188049299</v>
+      </c>
+      <c r="AI47">
+        <v>10.1186741828918</v>
+      </c>
+      <c r="AJ47">
+        <v>3.5717091321945098</v>
+      </c>
+      <c r="AK47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.59107298851006</v>
+      </c>
+      <c r="AL47" s="2">
+        <v>257.04653943589301</v>
+      </c>
+      <c r="AM47">
+        <v>190.614330794506</v>
+      </c>
+      <c r="AN47">
+        <v>70.102769245761607</v>
+      </c>
+      <c r="AO47">
+        <v>320.30378666068799</v>
+      </c>
+      <c r="AP47">
+        <v>172.40769772049899</v>
+      </c>
+      <c r="AQ47" s="5">
+        <f t="shared" si="11"/>
+        <v>1010.4751238573475</v>
+      </c>
+      <c r="AR47">
+        <v>6.70665957927703</v>
+      </c>
+      <c r="AS47">
+        <v>4.0756632089614797</v>
+      </c>
+      <c r="AT47">
+        <v>2.0859347343444798</v>
+      </c>
+      <c r="AU47">
+        <v>10.8468936443328</v>
+      </c>
+      <c r="AV47">
+        <v>4.3123409271240201</v>
+      </c>
+      <c r="AW47" s="3">
+        <f t="shared" si="10"/>
+        <v>28.027492094039808</v>
+      </c>
+      <c r="AX47" s="2">
+        <v>257.04653943589301</v>
+      </c>
+      <c r="AY47">
+        <v>190.614330794506</v>
+      </c>
+      <c r="AZ47">
+        <v>70.102769245761607</v>
+      </c>
+      <c r="BA47">
+        <v>320.30378666068799</v>
+      </c>
+      <c r="BB47">
+        <v>172.40769772049899</v>
+      </c>
+      <c r="BC47" s="5">
+        <f t="shared" si="7"/>
+        <v>1010.4751238573475</v>
+      </c>
+      <c r="BD47">
+        <v>6.4187736034393303</v>
+      </c>
+      <c r="BE47">
+        <v>3.8531149625778198</v>
+      </c>
+      <c r="BF47">
+        <v>1.88040461540222</v>
+      </c>
+      <c r="BG47">
+        <v>9.4230419158935508</v>
+      </c>
+      <c r="BH47">
+        <v>3.9600327730178799</v>
+      </c>
+      <c r="BI47" s="3">
+        <f t="shared" si="8"/>
+        <v>25.535367870330802</v>
+      </c>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="2"/>
+      <c r="BU47">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="2">
+        <v>338.32587735727299</v>
+      </c>
+      <c r="C48">
+        <v>269.05212169055801</v>
+      </c>
+      <c r="D48">
+        <v>127.663677937567</v>
+      </c>
+      <c r="E48">
+        <v>497.744343645821</v>
+      </c>
+      <c r="F48">
+        <v>276.03007656333102</v>
+      </c>
       <c r="G48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+        <f t="shared" si="1"/>
+        <v>1508.8160971945499</v>
+      </c>
+      <c r="H48">
+        <v>3.6337527990341099</v>
+      </c>
+      <c r="I48">
+        <v>3.7923718690872099</v>
+      </c>
+      <c r="J48">
+        <v>1.6802636861801099</v>
+      </c>
+      <c r="K48">
+        <v>8.6311204195022508</v>
+      </c>
+      <c r="L48">
+        <v>3.3056743860244699</v>
+      </c>
       <c r="M48" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+        <f t="shared" si="2"/>
+        <v>21.043183159828153</v>
+      </c>
+      <c r="N48">
+        <v>312.44330431708801</v>
+      </c>
+      <c r="O48">
+        <v>277.29978239438202</v>
+      </c>
+      <c r="P48">
+        <v>60.450474501971101</v>
+      </c>
+      <c r="Q48">
+        <v>485.812871442465</v>
+      </c>
+      <c r="R48">
+        <v>276.03007656333102</v>
+      </c>
       <c r="S48" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="2"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
+        <f t="shared" si="3"/>
+        <v>1412.0365092192371</v>
+      </c>
+      <c r="T48" s="2">
+        <v>9.5731970787048297</v>
+      </c>
+      <c r="U48">
+        <v>10.352837848663301</v>
+      </c>
+      <c r="V48">
+        <v>2.9610889196395802</v>
+      </c>
+      <c r="W48">
+        <v>17.9969166994094</v>
+      </c>
+      <c r="X48">
+        <v>7.4309311628341597</v>
+      </c>
       <c r="Y48" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="2"/>
-      <c r="AW48">
         <f t="shared" si="4"/>
+        <v>48.314971709251267</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>466.310568551448</v>
+      </c>
+      <c r="AA48">
+        <v>438.30427832531097</v>
+      </c>
+      <c r="AB48">
+        <v>60.450474501971101</v>
+      </c>
+      <c r="AC48">
+        <v>531.39328509637301</v>
+      </c>
+      <c r="AD48">
+        <v>204.19762998808301</v>
+      </c>
+      <c r="AE48" s="5">
+        <f t="shared" si="5"/>
+        <v>1700.6562364631861</v>
+      </c>
+      <c r="AF48">
+        <v>4.04213094711303</v>
+      </c>
+      <c r="AG48">
+        <v>8.3722882986068701</v>
+      </c>
+      <c r="AH48">
+        <v>1.10815269947052</v>
+      </c>
+      <c r="AI48">
+        <v>5.28781280517578</v>
+      </c>
+      <c r="AJ48">
+        <v>1.7033911228179901</v>
+      </c>
+      <c r="AK48" s="3">
+        <f t="shared" si="6"/>
+        <v>20.513775873184191</v>
+      </c>
+      <c r="AL48" s="2">
+        <v>312.44330431708801</v>
+      </c>
+      <c r="AM48">
+        <v>277.29978239438202</v>
+      </c>
+      <c r="AN48">
+        <v>60.450474501971101</v>
+      </c>
+      <c r="AO48">
+        <v>485.812871442465</v>
+      </c>
+      <c r="AP48">
+        <v>276.03007656333102</v>
+      </c>
+      <c r="AQ48" s="5">
+        <f t="shared" si="11"/>
+        <v>1412.0365092192371</v>
+      </c>
+      <c r="AR48">
+        <v>4.3984683752059901</v>
+      </c>
+      <c r="AS48">
+        <v>4.6069097518920898</v>
+      </c>
+      <c r="AT48">
+        <v>1.23695383071899</v>
+      </c>
+      <c r="AU48">
+        <v>7.8519846200942904</v>
+      </c>
+      <c r="AV48">
+        <v>3.3135098218917798</v>
+      </c>
+      <c r="AW48" s="3">
+        <f t="shared" si="10"/>
+        <v>21.407826399803142</v>
+      </c>
+      <c r="AX48" s="2">
+        <v>234.02128846335199</v>
+      </c>
+      <c r="AY48">
+        <v>429.68766503450598</v>
+      </c>
+      <c r="AZ48">
+        <v>60.450474501971101</v>
+      </c>
+      <c r="BA48">
+        <v>485.812871442465</v>
+      </c>
+      <c r="BB48">
+        <v>276.03007656333102</v>
+      </c>
+      <c r="BC48" s="5">
+        <f t="shared" si="7"/>
+        <v>1486.0023760056251</v>
+      </c>
+      <c r="BD48">
+        <v>2.5435434103011998</v>
+      </c>
+      <c r="BE48">
+        <v>6.3640658617019596</v>
+      </c>
+      <c r="BF48">
+        <v>1.1545655727386399</v>
+      </c>
+      <c r="BG48">
+        <v>6.8241875648498498</v>
+      </c>
+      <c r="BH48">
+        <v>2.9808768749237</v>
+      </c>
+      <c r="BI48" s="3">
+        <f t="shared" si="8"/>
+        <v>19.86723928451535</v>
+      </c>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="2"/>
+      <c r="BU48">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5172,7 +7971,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="2"/>
@@ -5181,7 +7980,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N49" s="2"/>
@@ -5190,7 +7989,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T49" s="2"/>
@@ -5199,7 +7998,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z49" s="2"/>
@@ -5219,14 +8018,38 @@
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
+      <c r="AQ49" s="5"/>
       <c r="AR49" s="2"/>
-      <c r="AW49">
-        <f t="shared" si="4"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="3"/>
+      <c r="BP49" s="2"/>
+      <c r="BU49">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -5236,7 +8059,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" s="2"/>
@@ -5245,7 +8068,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N50" s="2"/>
@@ -5254,7 +8077,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T50" s="2"/>
@@ -5263,7 +8086,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z50" s="2"/>
@@ -5283,14 +8106,38 @@
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
+      <c r="AQ50" s="5"/>
       <c r="AR50" s="2"/>
-      <c r="AW50">
-        <f t="shared" si="4"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="2"/>
+      <c r="BU50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -5300,7 +8147,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="2"/>
@@ -5309,7 +8156,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N51" s="2"/>
@@ -5318,7 +8165,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T51" s="2"/>
@@ -5327,7 +8174,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z51" s="2"/>
@@ -5347,14 +8194,38 @@
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
-      <c r="AQ51" s="3"/>
+      <c r="AQ51" s="5"/>
       <c r="AR51" s="2"/>
-      <c r="AW51">
-        <f t="shared" si="4"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="3"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
+      <c r="BO51" s="3"/>
+      <c r="BP51" s="2"/>
+      <c r="BU51">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5364,7 +8235,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="2"/>
@@ -5373,7 +8244,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N52" s="2"/>
@@ -5382,7 +8253,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T52" s="2"/>
@@ -5391,7 +8262,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z52" s="2"/>
@@ -5411,14 +8282,38 @@
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
-      <c r="AQ52" s="3"/>
+      <c r="AQ52" s="5"/>
       <c r="AR52" s="2"/>
-      <c r="AW52">
-        <f t="shared" si="4"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="3"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
+      <c r="BO52" s="3"/>
+      <c r="BP52" s="2"/>
+      <c r="BU52">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +8323,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53" s="2"/>
@@ -5437,7 +8332,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N53" s="2"/>
@@ -5446,7 +8341,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T53" s="2"/>
@@ -5455,7 +8350,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z53" s="2"/>
@@ -5475,14 +8370,38 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
+      <c r="AQ53" s="5"/>
       <c r="AR53" s="2"/>
-      <c r="AW53">
-        <f t="shared" si="4"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="3"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
+      <c r="BO53" s="3"/>
+      <c r="BP53" s="2"/>
+      <c r="BU53">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -5492,7 +8411,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="2"/>
@@ -5501,7 +8420,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N54" s="2"/>
@@ -5510,7 +8429,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T54" s="2"/>
@@ -5519,7 +8438,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z54" s="2"/>
@@ -5539,14 +8458,38 @@
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
+      <c r="AQ54" s="5"/>
       <c r="AR54" s="2"/>
-      <c r="AW54">
-        <f t="shared" si="4"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="3"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
+      <c r="BO54" s="3"/>
+      <c r="BP54" s="2"/>
+      <c r="BU54">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5566,7 +8509,7 @@
         <v>300.77546920872902</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1153.3559073341512</v>
       </c>
       <c r="H55">
@@ -5585,7 +8528,7 @@
         <v>27.5960756540298</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.95551874637597</v>
       </c>
       <c r="N55" s="2"/>
@@ -5594,7 +8537,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T55" s="2"/>
@@ -5603,7 +8546,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z55" s="2"/>
@@ -5623,14 +8566,38 @@
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
-      <c r="AQ55" s="3"/>
+      <c r="AQ55" s="5"/>
       <c r="AR55" s="2"/>
-      <c r="AW55">
-        <f t="shared" si="4"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="2"/>
+      <c r="BE55" s="3"/>
+      <c r="BF55" s="3"/>
+      <c r="BG55" s="3"/>
+      <c r="BH55" s="3"/>
+      <c r="BI55" s="3"/>
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="3"/>
+      <c r="BM55" s="3"/>
+      <c r="BN55" s="3"/>
+      <c r="BO55" s="3"/>
+      <c r="BP55" s="2"/>
+      <c r="BU55">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5640,7 +8607,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" s="2"/>
@@ -5649,7 +8616,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N56" s="2"/>
@@ -5658,7 +8625,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T56" s="2"/>
@@ -5667,7 +8634,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z56" s="2"/>
@@ -5687,14 +8654,38 @@
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
+      <c r="AQ56" s="5"/>
       <c r="AR56" s="2"/>
-      <c r="AW56">
-        <f t="shared" si="4"/>
+      <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="3"/>
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="3"/>
+      <c r="BF56" s="3"/>
+      <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+      <c r="BI56" s="3"/>
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="3"/>
+      <c r="BM56" s="3"/>
+      <c r="BN56" s="3"/>
+      <c r="BO56" s="3"/>
+      <c r="BP56" s="2"/>
+      <c r="BU56">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -5704,7 +8695,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57" s="2"/>
@@ -5713,7 +8704,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N57" s="2"/>
@@ -5722,7 +8713,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T57" s="2"/>
@@ -5731,7 +8722,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z57" s="2"/>
@@ -5751,14 +8742,38 @@
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
+      <c r="AQ57" s="5"/>
       <c r="AR57" s="2"/>
-      <c r="AW57">
-        <f t="shared" si="4"/>
+      <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="5"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="3"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+      <c r="BI57" s="3"/>
+      <c r="BJ57" s="2"/>
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="3"/>
+      <c r="BM57" s="3"/>
+      <c r="BN57" s="3"/>
+      <c r="BO57" s="3"/>
+      <c r="BP57" s="2"/>
+      <c r="BU57">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -5768,7 +8783,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H58" s="2"/>
@@ -5777,7 +8792,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N58" s="2"/>
@@ -5786,7 +8801,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T58" s="2"/>
@@ -5795,7 +8810,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z58" s="2"/>
@@ -5815,14 +8830,38 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
+      <c r="AQ58" s="5"/>
       <c r="AR58" s="2"/>
-      <c r="AW58">
-        <f t="shared" si="4"/>
+      <c r="AS58" s="3"/>
+      <c r="AT58" s="3"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+      <c r="BI58" s="3"/>
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="3"/>
+      <c r="BL58" s="3"/>
+      <c r="BM58" s="3"/>
+      <c r="BN58" s="3"/>
+      <c r="BO58" s="3"/>
+      <c r="BP58" s="2"/>
+      <c r="BU58">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -5832,7 +8871,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H59" s="2"/>
@@ -5841,7 +8880,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N59" s="2"/>
@@ -5850,7 +8889,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T59" s="2"/>
@@ -5859,7 +8898,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z59" s="2"/>
@@ -5879,34 +8918,62 @@
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
+      <c r="AQ59" s="5"/>
       <c r="AR59" s="2"/>
-      <c r="AW59">
-        <f t="shared" si="4"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+      <c r="BI59" s="3"/>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="3"/>
+      <c r="BM59" s="3"/>
+      <c r="BN59" s="3"/>
+      <c r="BO59" s="3"/>
+      <c r="BP59" s="2"/>
+      <c r="BU59">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
       <c r="M60" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AR60" s="2"/>
-      <c r="AW60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BP60" s="2"/>
+      <c r="BU60">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="BJ1:BO1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Results-Lilim-100Nodes.xlsx
+++ b/Results-Lilim-100Nodes.xlsx
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7:AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,14 +1757,43 @@
         <f t="shared" si="4"/>
         <v>24.363980674743537</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="Z7">
+        <v>224.392720994386</v>
+      </c>
+      <c r="AA7">
+        <v>122.610342876516</v>
+      </c>
+      <c r="AB7">
+        <v>144.47355668633099</v>
+      </c>
+      <c r="AC7">
+        <v>194.86579477158401</v>
+      </c>
+      <c r="AD7">
+        <v>50.142135623730901</v>
+      </c>
       <c r="AE7" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>736.48455095254792</v>
+      </c>
+      <c r="AF7">
+        <v>6.4481133937835597</v>
+      </c>
+      <c r="AG7">
+        <v>5.1103742361068702</v>
+      </c>
+      <c r="AH7">
+        <v>5.1814262866973797</v>
+      </c>
+      <c r="AI7">
+        <v>11.501571488380399</v>
+      </c>
+      <c r="AJ7">
+        <v>1.30596985816955</v>
       </c>
       <c r="AK7" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>29.54745526313776</v>
       </c>
       <c r="AL7" s="2">
         <v>151.83723053454599</v>
@@ -1928,14 +1957,43 @@
         <f t="shared" si="4"/>
         <v>10.488498735427846</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8">
+        <v>142.46396047337799</v>
+      </c>
+      <c r="AA8">
+        <v>105.527478750375</v>
+      </c>
+      <c r="AB8">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC8">
+        <v>197.958450110923</v>
+      </c>
+      <c r="AD8">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AE8" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>646.99554610708935</v>
+      </c>
+      <c r="AF8">
+        <v>3.86283538341522</v>
+      </c>
+      <c r="AG8">
+        <v>2.4356332540511998</v>
+      </c>
+      <c r="AH8">
+        <v>2.6713542461395199</v>
+      </c>
+      <c r="AI8">
+        <v>5.1133911132812502</v>
+      </c>
+      <c r="AJ8">
+        <v>1.3428739786148001</v>
       </c>
       <c r="AK8" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15.426087975501989</v>
       </c>
       <c r="AL8" s="2">
         <v>148.756384553087</v>
@@ -2099,37 +2157,81 @@
         <f t="shared" si="4"/>
         <v>11.123294472694379</v>
       </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+      <c r="Z9">
+        <v>204.67551133961501</v>
+      </c>
+      <c r="AA9">
+        <v>105.826733512215</v>
+      </c>
+      <c r="AB9">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC9">
+        <v>269.12245973323201</v>
+      </c>
+      <c r="AD9">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AE9" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
+        <v>780.67036135747549</v>
+      </c>
+      <c r="AF9">
+        <v>3.8062079906463602</v>
+      </c>
+      <c r="AG9">
+        <v>2.1603329896926802</v>
+      </c>
+      <c r="AH9">
+        <v>3.1446794033050498</v>
+      </c>
+      <c r="AI9">
+        <v>6.1178484201431198</v>
+      </c>
+      <c r="AJ9">
+        <v>1.49938950538635</v>
+      </c>
       <c r="AK9" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2"/>
+        <v>16.728458309173561</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>148.756384553087</v>
+      </c>
+      <c r="AM9">
+        <v>98.782327103466301</v>
+      </c>
+      <c r="AN9">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AO9">
+        <v>197.958450110923</v>
+      </c>
+      <c r="AP9">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AQ9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
+        <v>646.54281853988959</v>
+      </c>
+      <c r="AR9">
+        <v>5.6080579280853202</v>
+      </c>
+      <c r="AS9">
+        <v>2.8520595550537098</v>
+      </c>
+      <c r="AT9">
+        <v>3.4536405801773</v>
+      </c>
+      <c r="AU9">
+        <v>6.5061832427978503</v>
+      </c>
+      <c r="AV9">
+        <v>1.7566189050674399</v>
+      </c>
       <c r="AW9" s="3">
         <f t="shared" ref="AW9:AW48" si="10">SUM(AR9:AV9)</f>
-        <v>0</v>
+        <v>20.17656021118162</v>
       </c>
       <c r="AX9" s="2">
         <v>159.20070889874299</v>
@@ -2255,33 +2357,81 @@
         <f t="shared" si="4"/>
         <v>11.147950792312608</v>
       </c>
-      <c r="Z10" s="2"/>
+      <c r="Z10">
+        <v>110.206699026359</v>
+      </c>
+      <c r="AA10">
+        <v>110.50607510501101</v>
+      </c>
+      <c r="AB10">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC10">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AD10">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AE10" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+        <v>622.9043688231734</v>
+      </c>
+      <c r="AF10">
+        <v>3.7380420923233002</v>
+      </c>
+      <c r="AG10">
+        <v>3.0149364471435498</v>
+      </c>
+      <c r="AH10">
+        <v>3.0847069025039602</v>
+      </c>
+      <c r="AI10">
+        <v>5.7658711671829197</v>
+      </c>
+      <c r="AJ10">
+        <v>1.4546997785568201</v>
+      </c>
       <c r="AK10" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2"/>
+        <v>17.05825638771055</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>145.304880483967</v>
+      </c>
+      <c r="AM10">
+        <v>105.82271429207501</v>
+      </c>
+      <c r="AN10">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AO10">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AP10">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AQ10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
+        <v>653.31918946784538</v>
+      </c>
+      <c r="AR10">
+        <v>5.0593881130218499</v>
+      </c>
+      <c r="AS10">
+        <v>2.9896446466445901</v>
+      </c>
+      <c r="AT10">
+        <v>3.95691270828247</v>
+      </c>
+      <c r="AU10">
+        <v>6.6442367792129504</v>
+      </c>
+      <c r="AV10">
+        <v>1.88884816169738</v>
+      </c>
       <c r="AW10" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>20.53903040885924</v>
       </c>
       <c r="AX10" s="2">
         <v>147.69962901947</v>
@@ -2407,28 +2557,81 @@
         <f t="shared" si="4"/>
         <v>13.3904538631439</v>
       </c>
-      <c r="Z11" s="2"/>
+      <c r="Z11">
+        <v>110.206699026359</v>
+      </c>
+      <c r="AA11">
+        <v>110.40725555812899</v>
+      </c>
+      <c r="AB11">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC11">
+        <v>201.212942557161</v>
+      </c>
+      <c r="AD11">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AE11" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
+        <v>622.87255391406234</v>
+      </c>
+      <c r="AF11">
+        <v>4.2778151273727403</v>
+      </c>
+      <c r="AG11">
+        <v>2.9406144380569401</v>
+      </c>
+      <c r="AH11">
+        <v>3.2724629878997802</v>
+      </c>
+      <c r="AI11">
+        <v>6.5292543172836304</v>
+      </c>
+      <c r="AJ11">
+        <v>1.58541121482849</v>
+      </c>
       <c r="AK11" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2"/>
+        <v>18.605558085441579</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>156.40896749275601</v>
+      </c>
+      <c r="AM11">
+        <v>96.490641965189297</v>
+      </c>
+      <c r="AN11">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AO11">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AP11">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AQ11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>655.09120414974871</v>
+      </c>
+      <c r="AR11">
+        <v>6.1351145744323698</v>
+      </c>
+      <c r="AS11">
+        <v>2.8313804864883401</v>
+      </c>
+      <c r="AT11">
+        <v>3.5628847122192302</v>
+      </c>
+      <c r="AU11">
+        <v>6.6748054027557302</v>
+      </c>
+      <c r="AV11">
+        <v>1.67352073192596</v>
       </c>
       <c r="AW11" s="3">
         <f>SUM(AR11:AV11)</f>
-        <v>0</v>
+        <v>20.877705907821632</v>
       </c>
       <c r="AX11" s="2">
         <v>151.98178517246799</v>
@@ -2554,28 +2757,81 @@
         <f t="shared" si="4"/>
         <v>21.886188673973063</v>
       </c>
-      <c r="Z12" s="2"/>
+      <c r="Z12">
+        <v>161.70065646308601</v>
+      </c>
+      <c r="AA12">
+        <v>80.416179041571795</v>
+      </c>
+      <c r="AB12">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AC12">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AD12">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AE12" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
+        <v>644.30843019646113</v>
+      </c>
+      <c r="AF12">
+        <v>11.5257639884948</v>
+      </c>
+      <c r="AG12">
+        <v>2.2050282239913899</v>
+      </c>
+      <c r="AH12">
+        <v>4.90048344135284</v>
+      </c>
+      <c r="AI12">
+        <v>8.5598953723907396</v>
+      </c>
+      <c r="AJ12">
+        <v>1.69239401817321</v>
+      </c>
       <c r="AK12" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2"/>
+        <v>28.883565044402978</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>151.98178517246799</v>
+      </c>
+      <c r="AM12">
+        <v>96.589732841017593</v>
+      </c>
+      <c r="AN12">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AO12">
+        <v>201.27994719493199</v>
+      </c>
+      <c r="AP12">
+        <v>52.527300430865402</v>
+      </c>
       <c r="AQ12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>650.89712198083089</v>
+      </c>
+      <c r="AR12">
+        <v>6.8331749677657996</v>
+      </c>
+      <c r="AS12">
+        <v>3.08958451747894</v>
+      </c>
+      <c r="AT12">
+        <v>4.01715061664581</v>
+      </c>
+      <c r="AU12">
+        <v>8.6047090530395494</v>
+      </c>
+      <c r="AV12">
+        <v>1.9274831056594799</v>
       </c>
       <c r="AW12" s="3">
         <f>SUM(AR12:AV12)</f>
-        <v>0</v>
+        <v>24.47210226058958</v>
       </c>
       <c r="AX12" s="2">
         <v>159.53160835793099</v>
@@ -2701,28 +2957,81 @@
         <f t="shared" si="4"/>
         <v>12.453018999099708</v>
       </c>
-      <c r="Z13" s="2"/>
+      <c r="Z13">
+        <v>155.07506374327701</v>
+      </c>
+      <c r="AA13">
+        <v>152.765610009699</v>
+      </c>
+      <c r="AB13">
+        <v>238.63534163309501</v>
+      </c>
+      <c r="AC13">
+        <v>284.08022337934</v>
+      </c>
+      <c r="AD13">
+        <v>109.154249735316</v>
+      </c>
       <c r="AE13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
+        <v>939.71048850072702</v>
+      </c>
+      <c r="AF13">
+        <v>1.87750022411346</v>
+      </c>
+      <c r="AG13">
+        <v>2.5129470109939498</v>
+      </c>
+      <c r="AH13">
+        <v>4.0443292856216404</v>
+      </c>
+      <c r="AI13">
+        <v>8.4266450166702196</v>
+      </c>
+      <c r="AJ13">
+        <v>0.87984113693237298</v>
+      </c>
       <c r="AK13" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2"/>
+        <v>17.741262674331644</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>159.53160835793099</v>
+      </c>
+      <c r="AM13">
+        <v>80.416179041571795</v>
+      </c>
+      <c r="AN13">
+        <v>148.51835634154801</v>
+      </c>
+      <c r="AO13">
+        <v>201.14593791939001</v>
+      </c>
+      <c r="AP13">
+        <v>97.6493571215793</v>
+      </c>
       <c r="AQ13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>687.26143878202015</v>
+      </c>
+      <c r="AR13">
+        <v>11.1501729011535</v>
+      </c>
+      <c r="AS13">
+        <v>2.58296480178833</v>
+      </c>
+      <c r="AT13">
+        <v>5.8834872961044304</v>
+      </c>
+      <c r="AU13">
+        <v>10.800409221649099</v>
+      </c>
+      <c r="AV13">
+        <v>2.5140008449554401</v>
       </c>
       <c r="AW13" s="3">
         <f>SUM(AR13:AV13)</f>
-        <v>0</v>
+        <v>32.931035065650796</v>
       </c>
       <c r="AX13" s="2">
         <v>191.60109661909999</v>
@@ -2854,32 +3163,81 @@
         <f t="shared" si="4"/>
         <v>17.789727473258949</v>
       </c>
-      <c r="Z14" s="2"/>
+      <c r="Z14">
+        <v>193.82017561776101</v>
+      </c>
+      <c r="AA14">
+        <v>194.841703421321</v>
+      </c>
+      <c r="AB14">
+        <v>203.28513804065699</v>
+      </c>
+      <c r="AC14">
+        <v>179.94992639992799</v>
+      </c>
+      <c r="AD14">
+        <v>170.677305023836</v>
+      </c>
       <c r="AE14" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
+        <v>942.57424850350299</v>
+      </c>
+      <c r="AF14">
+        <v>1.9990540981292699</v>
+      </c>
+      <c r="AG14">
+        <v>8.3612008571624692</v>
+      </c>
+      <c r="AH14">
+        <v>7.2377205610275199</v>
+      </c>
+      <c r="AI14">
+        <v>9.5814216613769503</v>
+      </c>
+      <c r="AJ14">
+        <v>3.1608600139617899</v>
+      </c>
       <c r="AK14" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
+        <v>30.340257191658001</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>251.68529934636101</v>
+      </c>
+      <c r="AM14">
+        <v>152.765610009699</v>
+      </c>
+      <c r="AN14">
+        <v>236.49151882785301</v>
+      </c>
+      <c r="AO14">
+        <v>255.51866651167501</v>
+      </c>
+      <c r="AP14">
+        <v>147.44960822020801</v>
+      </c>
       <c r="AQ14" s="5">
-        <f t="shared" ref="AQ10:AQ48" si="11">SUM(AL14:AP14)</f>
-        <v>0</v>
+        <f t="shared" ref="AQ14:AQ48" si="11">SUM(AL14:AP14)</f>
+        <v>1043.9107029157963</v>
+      </c>
+      <c r="AR14">
+        <v>4.2835056543350198</v>
+      </c>
+      <c r="AS14">
+        <v>3.27147009372711</v>
+      </c>
+      <c r="AT14">
+        <v>4.4375966548919603</v>
+      </c>
+      <c r="AU14">
+        <v>8.2360730409622196</v>
+      </c>
+      <c r="AV14">
+        <v>1.38465197086334</v>
       </c>
       <c r="AW14" s="3">
         <f>SUM(AR14:AV14)</f>
-        <v>0</v>
+        <v>21.613297414779652</v>
       </c>
       <c r="AX14" s="2">
         <v>162.23528861629501</v>
@@ -3011,36 +3369,81 @@
         <f t="shared" si="4"/>
         <v>33.008878064155539</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
+      <c r="Z15">
+        <v>216.88338867046099</v>
+      </c>
+      <c r="AA15">
+        <v>179.98771894786299</v>
+      </c>
+      <c r="AB15">
+        <v>193.72975940217401</v>
+      </c>
+      <c r="AC15">
+        <v>156.713295910813</v>
+      </c>
+      <c r="AD15">
+        <v>168.49066569943801</v>
+      </c>
       <c r="AE15" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
+        <v>915.80482863074917</v>
+      </c>
+      <c r="AF15">
+        <v>4.2612520694732599</v>
+      </c>
+      <c r="AG15">
+        <v>9.7526063203811599</v>
+      </c>
+      <c r="AH15">
+        <v>8.1418722391128497</v>
+      </c>
+      <c r="AI15">
+        <v>14.217589473724299</v>
+      </c>
+      <c r="AJ15">
+        <v>4.4080167770385703</v>
+      </c>
       <c r="AK15" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
+        <v>40.781336879730134</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>327.04614536947798</v>
+      </c>
+      <c r="AM15">
+        <v>169.55286584768399</v>
+      </c>
+      <c r="AN15">
+        <v>175.027007071204</v>
+      </c>
+      <c r="AO15">
+        <v>273.39826674909801</v>
+      </c>
+      <c r="AP15">
+        <v>203.96616199574001</v>
+      </c>
       <c r="AQ15" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1148.9904470332042</v>
+      </c>
+      <c r="AR15">
+        <v>6.8256854534149101</v>
+      </c>
+      <c r="AS15">
+        <v>2.9797410964965798</v>
+      </c>
+      <c r="AT15">
+        <v>4.0920321941375697</v>
+      </c>
+      <c r="AU15">
+        <v>13.5486724138259</v>
+      </c>
+      <c r="AV15">
+        <v>4.9146657943725502</v>
       </c>
       <c r="AW15" s="3">
         <f>SUM(AR15:AV15)</f>
-        <v>0</v>
+        <v>32.360796952247512</v>
       </c>
       <c r="AX15" s="2">
         <v>154.15981694475701</v>
@@ -3172,41 +3575,81 @@
         <f t="shared" si="4"/>
         <v>68.697053098678566</v>
       </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
+      <c r="Z16">
+        <v>209.47544395263799</v>
+      </c>
+      <c r="AA16">
+        <v>122.70776287405</v>
+      </c>
+      <c r="AB16">
+        <v>211.580823918362</v>
+      </c>
+      <c r="AC16">
+        <v>274.810707801825</v>
+      </c>
+      <c r="AD16">
+        <v>155.22345769943701</v>
+      </c>
       <c r="AE16" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+        <v>973.79819624631182</v>
+      </c>
+      <c r="AF16">
+        <v>9.5542085409164397</v>
+      </c>
+      <c r="AG16">
+        <v>5.3604382038116398</v>
+      </c>
+      <c r="AH16">
+        <v>11.6110980987548</v>
+      </c>
+      <c r="AI16">
+        <v>52.129576182365398</v>
+      </c>
+      <c r="AJ16">
+        <v>2.4396843433380102</v>
+      </c>
       <c r="AK16" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
+        <v>81.095005369186296</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>227.96857450015699</v>
+      </c>
+      <c r="AM16">
+        <v>179.98771894786299</v>
+      </c>
+      <c r="AN16">
+        <v>169.836294051935</v>
+      </c>
+      <c r="AO16">
+        <v>259.562654676779</v>
+      </c>
+      <c r="AP16">
+        <v>203.96616199574001</v>
+      </c>
       <c r="AQ16" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
+        <v>1041.3214041724741</v>
+      </c>
+      <c r="AR16">
+        <v>3.4398366689682001</v>
+      </c>
+      <c r="AS16">
+        <v>11.8569980382919</v>
+      </c>
+      <c r="AT16">
+        <v>4.9848235845565796</v>
+      </c>
+      <c r="AU16">
+        <v>24.060271906852702</v>
+      </c>
+      <c r="AV16">
+        <v>6.6328755140304496</v>
+      </c>
       <c r="AW16" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>50.974805712699833</v>
       </c>
       <c r="AX16" s="2">
         <v>209.47544395263799</v>
@@ -3338,41 +3781,81 @@
         <f t="shared" si="4"/>
         <v>18.788391184806802</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
+      <c r="Z17">
+        <v>255.03155596785001</v>
+      </c>
+      <c r="AA17">
+        <v>153.274802852101</v>
+      </c>
+      <c r="AB17">
+        <v>201.234408199353</v>
+      </c>
+      <c r="AC17">
+        <v>217.77063368948899</v>
+      </c>
+      <c r="AD17">
+        <v>152.961126160129</v>
+      </c>
       <c r="AE17" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
+        <v>980.27252686892189</v>
+      </c>
+      <c r="AF17">
+        <v>5.2015434265136697</v>
+      </c>
+      <c r="AG17">
+        <v>4.9281017541885301</v>
+      </c>
+      <c r="AH17">
+        <v>4.5681679487228397</v>
+      </c>
+      <c r="AI17">
+        <v>5.7508327245712199</v>
+      </c>
+      <c r="AJ17">
+        <v>2.0483695030212399</v>
+      </c>
       <c r="AK17" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
+        <v>22.497015357017503</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>227.55330022553099</v>
+      </c>
+      <c r="AM17">
+        <v>151.758552352408</v>
+      </c>
+      <c r="AN17">
+        <v>134.84679129158599</v>
+      </c>
+      <c r="AO17">
+        <v>255.33792632727699</v>
+      </c>
+      <c r="AP17">
+        <v>203.35855179665899</v>
+      </c>
       <c r="AQ17" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
+        <v>972.8551219934609</v>
+      </c>
+      <c r="AR17">
+        <v>7.6492364168167102</v>
+      </c>
+      <c r="AS17">
+        <v>7.71581628322601</v>
+      </c>
+      <c r="AT17">
+        <v>6.24365134239196</v>
+      </c>
+      <c r="AU17">
+        <v>72.714664030074999</v>
+      </c>
+      <c r="AV17">
+        <v>6.0432926177978503</v>
+      </c>
       <c r="AW17" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100.36666069030753</v>
       </c>
       <c r="AX17" s="2">
         <v>255.03155596785001</v>
@@ -3504,41 +3987,81 @@
         <f t="shared" si="4"/>
         <v>32.700722789764278</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
+      <c r="Z18">
+        <v>85.3842548474681</v>
+      </c>
+      <c r="AA18">
+        <v>139.64886821887001</v>
+      </c>
+      <c r="AB18">
+        <v>266.15681425643697</v>
+      </c>
+      <c r="AC18">
+        <v>320.72189039378702</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
       <c r="AE18" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
+        <v>811.91182771656213</v>
+      </c>
+      <c r="AF18">
+        <v>1.2165066480636499</v>
+      </c>
+      <c r="AG18">
+        <v>2.53107237815856</v>
+      </c>
+      <c r="AH18">
+        <v>18.420865416526699</v>
+      </c>
+      <c r="AI18">
+        <v>20.141511464118899</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
       <c r="AK18" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
+        <v>42.309955906867806</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>313.13217148424201</v>
+      </c>
+      <c r="AM18">
+        <v>153.274802852101</v>
+      </c>
+      <c r="AN18">
+        <v>241.67154979377401</v>
+      </c>
+      <c r="AO18">
+        <v>186.905239211657</v>
+      </c>
+      <c r="AP18">
+        <v>115.566897157905</v>
+      </c>
       <c r="AQ18" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
+        <v>1010.550660499679</v>
+      </c>
+      <c r="AR18">
+        <v>7.0109284639358496</v>
+      </c>
+      <c r="AS18">
+        <v>5.9533527612686097</v>
+      </c>
+      <c r="AT18">
+        <v>7.8372111082076996</v>
+      </c>
+      <c r="AU18">
+        <v>6.4656742334365802</v>
+      </c>
+      <c r="AV18">
+        <v>1.9279176712036099</v>
+      </c>
       <c r="AW18" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>29.195084238052349</v>
       </c>
       <c r="AX18" s="2">
         <v>121.91028772329101</v>
@@ -3670,41 +4193,81 @@
         <f t="shared" si="4"/>
         <v>29.109723663330016</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
+      <c r="Z19">
+        <v>171.64341002549</v>
+      </c>
+      <c r="AA19">
+        <v>153.06827551576001</v>
+      </c>
+      <c r="AB19">
+        <v>245.98456547815201</v>
+      </c>
+      <c r="AC19">
+        <v>234.51523448165599</v>
+      </c>
+      <c r="AD19">
+        <v>115.566897157905</v>
+      </c>
       <c r="AE19" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
+        <v>920.77838265896298</v>
+      </c>
+      <c r="AF19">
+        <v>4.0760778427124</v>
+      </c>
+      <c r="AG19">
+        <v>11.0831034898757</v>
+      </c>
+      <c r="AH19">
+        <v>6.1199695110321004</v>
+      </c>
+      <c r="AI19">
+        <v>11.8077323198318</v>
+      </c>
+      <c r="AJ19">
+        <v>1.81134812831878</v>
+      </c>
       <c r="AK19" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
+        <v>34.898231291770777</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>133.592581412154</v>
+      </c>
+      <c r="AM19">
+        <v>151.692810330192</v>
+      </c>
+      <c r="AN19">
+        <v>255.510506326995</v>
+      </c>
+      <c r="AO19">
+        <v>281.20181840403001</v>
+      </c>
+      <c r="AP19">
+        <v>71.054083775364404</v>
+      </c>
       <c r="AQ19" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
+        <v>893.05180024873539</v>
+      </c>
+      <c r="AR19">
+        <v>2.5208499908447202</v>
+      </c>
+      <c r="AS19">
+        <v>3.97108952999114</v>
+      </c>
+      <c r="AT19">
+        <v>16.043842387199401</v>
+      </c>
+      <c r="AU19">
+        <v>21.544659423828101</v>
+      </c>
+      <c r="AV19">
+        <v>0.87547054290771398</v>
+      </c>
       <c r="AW19" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>44.955911874771076</v>
       </c>
       <c r="AX19" s="2">
         <v>171.64341002549</v>
@@ -3836,41 +4399,81 @@
         <f t="shared" si="4"/>
         <v>29.494111752510037</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="Z20">
+        <v>255.03155596785001</v>
+      </c>
+      <c r="AA20">
+        <v>153.10575474694599</v>
+      </c>
+      <c r="AB20">
+        <v>201.234408199353</v>
+      </c>
+      <c r="AC20">
+        <v>215.15452526107899</v>
+      </c>
+      <c r="AD20">
+        <v>152.961126160129</v>
+      </c>
       <c r="AE20" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
+        <v>977.48737033535701</v>
+      </c>
+      <c r="AF20">
+        <v>8.1959123373031595</v>
+      </c>
+      <c r="AG20">
+        <v>6.7445632457733096</v>
+      </c>
+      <c r="AH20">
+        <v>6.7998101949691696</v>
+      </c>
+      <c r="AI20">
+        <v>10.5320385217666</v>
+      </c>
+      <c r="AJ20">
+        <v>2.71984872817993</v>
+      </c>
       <c r="AK20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
+        <v>34.992173027992173</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>264.96739219015802</v>
+      </c>
+      <c r="AM20">
+        <v>153.06827551576001</v>
+      </c>
+      <c r="AN20">
+        <v>241.723470577923</v>
+      </c>
+      <c r="AO20">
+        <v>215.15452526107899</v>
+      </c>
+      <c r="AP20">
+        <v>115.566897157905</v>
+      </c>
       <c r="AQ20" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
+        <v>990.48056070282507</v>
+      </c>
+      <c r="AR20">
+        <v>5.4499543905258099</v>
+      </c>
+      <c r="AS20">
+        <v>13.143904638290399</v>
+      </c>
+      <c r="AT20">
+        <v>6.0677769184112504</v>
+      </c>
+      <c r="AU20">
+        <v>12.1869487524032</v>
+      </c>
+      <c r="AV20">
+        <v>2.1155869722366298</v>
+      </c>
       <c r="AW20" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>38.964171671867291</v>
       </c>
       <c r="AX20" s="2">
         <v>255.03155596785001</v>
@@ -4020,23 +4623,43 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
+      <c r="AL21" s="2">
+        <v>228.99933861109699</v>
+      </c>
+      <c r="AM21">
+        <v>153.10575474694599</v>
+      </c>
+      <c r="AN21">
+        <v>245.93264469400401</v>
+      </c>
+      <c r="AO21">
+        <v>197.642056920106</v>
+      </c>
+      <c r="AP21">
+        <v>107.984927868296</v>
+      </c>
       <c r="AQ21" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
+        <v>933.66472284044903</v>
+      </c>
+      <c r="AR21">
+        <v>7.1176210403442299</v>
+      </c>
+      <c r="AS21">
+        <v>7.79207320213317</v>
+      </c>
+      <c r="AT21">
+        <v>15.0675921916961</v>
+      </c>
+      <c r="AU21">
+        <v>10.7663640022277</v>
+      </c>
+      <c r="AV21">
+        <v>2.3410719156265198</v>
+      </c>
       <c r="AW21" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>43.084722352027718</v>
       </c>
       <c r="AX21" s="2"/>
       <c r="AY21" s="3"/>
@@ -4166,23 +4789,43 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
+      <c r="AL22" s="2">
+        <v>327.04614536947798</v>
+      </c>
+      <c r="AM22">
+        <v>169.55286584768399</v>
+      </c>
+      <c r="AN22">
+        <v>175.027007071204</v>
+      </c>
+      <c r="AO22">
+        <v>273.39826674909801</v>
+      </c>
+      <c r="AP22">
+        <v>203.96616199574001</v>
+      </c>
       <c r="AQ22" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
+        <v>1148.9904470332042</v>
+      </c>
+      <c r="AR22">
+        <v>6.5207791805267297</v>
+      </c>
+      <c r="AS22">
+        <v>2.6828076839446999</v>
+      </c>
+      <c r="AT22">
+        <v>3.6186709165573099</v>
+      </c>
+      <c r="AU22">
+        <v>12.7025416851043</v>
+      </c>
+      <c r="AV22">
+        <v>4.40791537761688</v>
+      </c>
       <c r="AW22" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>29.93271484374992</v>
       </c>
       <c r="AX22" s="2"/>
       <c r="AY22" s="3"/>
@@ -4312,23 +4955,43 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
+      <c r="AL23" s="2">
+        <v>227.96857450015699</v>
+      </c>
+      <c r="AM23">
+        <v>179.98771894786299</v>
+      </c>
+      <c r="AN23">
+        <v>169.836294051935</v>
+      </c>
+      <c r="AO23">
+        <v>259.81692553721899</v>
+      </c>
+      <c r="AP23">
+        <v>203.96616199574001</v>
+      </c>
       <c r="AQ23" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
+        <v>1041.5756750329142</v>
+      </c>
+      <c r="AR23">
+        <v>3.5133681058883601</v>
+      </c>
+      <c r="AS23">
+        <v>11.807006478309599</v>
+      </c>
+      <c r="AT23">
+        <v>5.0805748462676998</v>
+      </c>
+      <c r="AU23">
+        <v>23.100161433219899</v>
+      </c>
+      <c r="AV23">
+        <v>6.7234407424926701</v>
+      </c>
       <c r="AW23" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>50.224551606178224</v>
       </c>
       <c r="AX23" s="2"/>
       <c r="AY23" s="3"/>
@@ -4458,23 +5121,43 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
+      <c r="AL24" s="2">
+        <v>227.49370614343701</v>
+      </c>
+      <c r="AM24">
+        <v>151.758552352408</v>
+      </c>
+      <c r="AN24">
+        <v>134.84679129158599</v>
+      </c>
+      <c r="AO24">
+        <v>255.399911261668</v>
+      </c>
+      <c r="AP24">
+        <v>203.35855179665899</v>
+      </c>
       <c r="AQ24" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
+        <v>972.85751284575792</v>
+      </c>
+      <c r="AR24">
+        <v>7.8517853260040198</v>
+      </c>
+      <c r="AS24">
+        <v>7.49700832366943</v>
+      </c>
+      <c r="AT24">
+        <v>6.1034948348998999</v>
+      </c>
+      <c r="AU24">
+        <v>68.325308823585502</v>
+      </c>
+      <c r="AV24">
+        <v>5.7863674640655498</v>
+      </c>
       <c r="AW24" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95.563964772224395</v>
       </c>
       <c r="AX24" s="2"/>
       <c r="AY24" s="3"/>
@@ -4604,23 +5287,43 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
+      <c r="AL25" s="2">
+        <v>313.13217148424201</v>
+      </c>
+      <c r="AM25">
+        <v>153.274802852101</v>
+      </c>
+      <c r="AN25">
+        <v>241.67154979377401</v>
+      </c>
+      <c r="AO25">
+        <v>186.905239211657</v>
+      </c>
+      <c r="AP25">
+        <v>115.566897157905</v>
+      </c>
       <c r="AQ25" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
+        <v>1010.550660499679</v>
+      </c>
+      <c r="AR25">
+        <v>6.3835042715072596</v>
+      </c>
+      <c r="AS25">
+        <v>5.5008460044860801</v>
+      </c>
+      <c r="AT25">
+        <v>7.4261198520660399</v>
+      </c>
+      <c r="AU25">
+        <v>5.9573056459426796</v>
+      </c>
+      <c r="AV25">
+        <v>1.7914657831192</v>
+      </c>
       <c r="AW25" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>27.059241557121258</v>
       </c>
       <c r="AX25" s="2"/>
       <c r="AY25" s="3"/>
@@ -4732,7 +5435,7 @@
         <f t="shared" si="4"/>
         <v>22.824234175681962</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="2">
         <v>207.76084254760599</v>
       </c>
       <c r="AA26">
@@ -4770,7 +5473,7 @@
         <f t="shared" si="6"/>
         <v>28.980239009857087</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="2">
         <v>217.199137022526</v>
       </c>
       <c r="AM26">
@@ -4956,6 +5659,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AL27" s="2"/>
       <c r="AQ27" s="5">
         <f t="shared" si="11"/>
         <v>0</v>

--- a/Results-Lilim-100Nodes.xlsx
+++ b/Results-Lilim-100Nodes.xlsx
@@ -222,28 +222,28 @@
     <t>Total</t>
   </si>
   <si>
-    <t>AVG Worse2Worst's Distances</t>
-  </si>
-  <si>
-    <t>AVG Worse2Worst's CT</t>
-  </si>
-  <si>
     <t>AVG 3-Voter Distances</t>
   </si>
   <si>
     <t>AVG 3-Voter CT</t>
   </si>
   <si>
-    <t>AVG Final_assigned Distances</t>
+    <t>AVG Nearest Routable Distances</t>
   </si>
   <si>
-    <t>AVG Final_assigned CT</t>
+    <t>AVG Nearest Routable CT</t>
   </si>
   <si>
-    <t>AVG Final_vote_assigned Distances</t>
+    <t>AVG 3_vote with condition_assigned CT</t>
   </si>
   <si>
-    <t>AVG Final_vote_assigned CT</t>
+    <t>AVG 3- vote with condition assigned Distances</t>
+  </si>
+  <si>
+    <t>AVG Nearest routable with condition_assigned CT</t>
+  </si>
+  <si>
+    <t>AVG Nearest routable with condition_assigned Distances</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7:AJ20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="15"/>
       <c r="N1" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
@@ -712,7 +712,7 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
@@ -720,7 +720,7 @@
       <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
       <c r="Z1" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
@@ -728,7 +728,7 @@
       <c r="AD1" s="14"/>
       <c r="AE1" s="15"/>
       <c r="AF1" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
@@ -736,7 +736,7 @@
       <c r="AJ1" s="14"/>
       <c r="AK1" s="14"/>
       <c r="AL1" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="14"/>
       <c r="AN1" s="14"/>
@@ -744,7 +744,7 @@
       <c r="AP1" s="14"/>
       <c r="AQ1" s="15"/>
       <c r="AR1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS1" s="14"/>
       <c r="AT1" s="14"/>
@@ -752,7 +752,7 @@
       <c r="AV1" s="14"/>
       <c r="AW1" s="14"/>
       <c r="AX1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AY1" s="14"/>
       <c r="AZ1" s="14"/>
@@ -760,7 +760,7 @@
       <c r="BB1" s="14"/>
       <c r="BC1" s="15"/>
       <c r="BD1" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BE1" s="14"/>
       <c r="BF1" s="14"/>
@@ -1234,27 +1234,42 @@
         <v>18.996669793128941</v>
       </c>
       <c r="AX4" s="10">
-        <v>149.24985279121501</v>
+        <v>147.08080468606099</v>
       </c>
       <c r="AY4">
-        <v>95.799959326746404</v>
+        <v>71.823998382771094</v>
       </c>
       <c r="AZ4">
-        <v>148.51835634154801</v>
+        <v>140.435773798935</v>
       </c>
       <c r="BA4">
-        <v>201.14593791939001</v>
+        <v>477.43731416969001</v>
       </c>
       <c r="BB4">
         <v>52.527300430865402</v>
       </c>
       <c r="BC4" s="5">
         <f>SUM(AX4:BB4)</f>
-        <v>647.24140680976484</v>
+        <v>889.30519146832239</v>
+      </c>
+      <c r="BD4">
+        <v>4.0286864042282096</v>
+      </c>
+      <c r="BE4">
+        <v>1.5333146810531599</v>
+      </c>
+      <c r="BF4">
+        <v>2.5514683246612502</v>
+      </c>
+      <c r="BG4">
+        <v>8.5157824277877801</v>
+      </c>
+      <c r="BH4">
+        <v>1.35053608417511</v>
       </c>
       <c r="BI4" s="3">
         <f>SUM(BD4:BH4)</f>
-        <v>0</v>
+        <v>17.979787921905512</v>
       </c>
       <c r="BO4" s="3"/>
       <c r="BP4" s="2">
@@ -1434,13 +1449,13 @@
         <v>21.01228458881376</v>
       </c>
       <c r="AX5" s="2">
-        <v>147.69962901947</v>
+        <v>145.530580914316</v>
       </c>
       <c r="AY5">
-        <v>103.66210391121901</v>
+        <v>281.14567253538002</v>
       </c>
       <c r="AZ5">
-        <v>148.51835634154801</v>
+        <v>140.87903611654599</v>
       </c>
       <c r="BA5">
         <v>201.14593791939001</v>
@@ -1450,11 +1465,26 @@
       </c>
       <c r="BC5" s="5">
         <f t="shared" ref="BC5:BC48" si="7">SUM(AX5:BB5)</f>
-        <v>653.55332762249236</v>
+        <v>821.22852791649734</v>
+      </c>
+      <c r="BD5">
+        <v>3.5440470695495598</v>
+      </c>
+      <c r="BE5">
+        <v>3.47434709072113</v>
+      </c>
+      <c r="BF5">
+        <v>3.3591539621353101</v>
+      </c>
+      <c r="BG5">
+        <v>5.9232247114181504</v>
+      </c>
+      <c r="BH5">
+        <v>1.3270277738571099</v>
       </c>
       <c r="BI5" s="3">
         <f t="shared" ref="BI5:BI48" si="8">SUM(BD5:BH5)</f>
-        <v>0</v>
+        <v>17.627800607681262</v>
       </c>
       <c r="BO5" s="3"/>
       <c r="BP5" s="2">
@@ -1634,13 +1664,13 @@
         <v>25.291383790969821</v>
       </c>
       <c r="AX6" s="2">
-        <v>254.66761625976699</v>
+        <v>281.048852522826</v>
       </c>
       <c r="AY6">
-        <v>93.360450951570897</v>
+        <v>75.440070363322505</v>
       </c>
       <c r="AZ6">
-        <v>147.73999534465699</v>
+        <v>136.26784897097701</v>
       </c>
       <c r="BA6">
         <v>200.388909073983</v>
@@ -1650,11 +1680,26 @@
       </c>
       <c r="BC6" s="5">
         <f t="shared" si="7"/>
-        <v>748.1300591485541</v>
+        <v>745.11876844968469</v>
+      </c>
+      <c r="BD6">
+        <v>8.6387415409088106</v>
+      </c>
+      <c r="BE6">
+        <v>1.58432903289794</v>
+      </c>
+      <c r="BF6">
+        <v>3.9976633548736502</v>
+      </c>
+      <c r="BG6">
+        <v>7.2619875669479299</v>
+      </c>
+      <c r="BH6">
+        <v>1.1589671373367301</v>
       </c>
       <c r="BI6" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.641688632965064</v>
       </c>
       <c r="BO6" s="3"/>
       <c r="BP6" s="2">
@@ -1834,27 +1879,42 @@
         <v>37.282051038741969</v>
       </c>
       <c r="AX7" s="2">
-        <v>226.34101787508001</v>
+        <v>274.33415447574498</v>
       </c>
       <c r="AY7">
-        <v>106.78060331663001</v>
+        <v>88.421645045083196</v>
       </c>
       <c r="AZ7">
-        <v>144.47355668633099</v>
+        <v>130.862087378181</v>
       </c>
       <c r="BA7">
-        <v>194.950729476075</v>
+        <v>194.79950731981299</v>
       </c>
       <c r="BB7">
         <v>50.142135623730901</v>
       </c>
       <c r="BC7" s="5">
         <f t="shared" si="7"/>
-        <v>722.68804297784698</v>
+        <v>738.55952984255316</v>
+      </c>
+      <c r="BD7">
+        <v>11.900298476219101</v>
+      </c>
+      <c r="BE7">
+        <v>2.2476025581359802</v>
+      </c>
+      <c r="BF7">
+        <v>4.98907470703125</v>
+      </c>
+      <c r="BG7">
+        <v>11.0127271175384</v>
+      </c>
+      <c r="BH7">
+        <v>1.32178816795349</v>
       </c>
       <c r="BI7" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>31.471491026878219</v>
       </c>
       <c r="BO7" s="3"/>
       <c r="BP7" s="2">
@@ -2034,27 +2094,42 @@
         <v>19.927357697486862</v>
       </c>
       <c r="AX8" s="2">
-        <v>148.756384553087</v>
+        <v>144.97250125506599</v>
       </c>
       <c r="AY8">
-        <v>98.782327103466301</v>
+        <v>68.115527836764301</v>
       </c>
       <c r="AZ8">
-        <v>148.51835634154801</v>
+        <v>140.435773798935</v>
       </c>
       <c r="BA8">
-        <v>197.958450110923</v>
+        <v>463.63605018248302</v>
       </c>
       <c r="BB8">
         <v>52.527300430865402</v>
       </c>
       <c r="BC8" s="5">
         <f t="shared" si="7"/>
-        <v>646.54281853988959</v>
+        <v>869.68715350411367</v>
+      </c>
+      <c r="BD8">
+        <v>4.2658385038375801</v>
+      </c>
+      <c r="BE8">
+        <v>1.4722814798355099</v>
+      </c>
+      <c r="BF8">
+        <v>2.5655532836914001</v>
+      </c>
+      <c r="BG8">
+        <v>8.3499988317489606</v>
+      </c>
+      <c r="BH8">
+        <v>1.3605311632156301</v>
       </c>
       <c r="BI8" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18.01420326232908</v>
       </c>
       <c r="BO8" s="3"/>
       <c r="BP8" s="2">
@@ -2234,27 +2309,42 @@
         <v>20.17656021118162</v>
       </c>
       <c r="AX9" s="2">
-        <v>159.20070889874299</v>
+        <v>139.84968708527001</v>
       </c>
       <c r="AY9">
-        <v>97.913145460499507</v>
+        <v>40</v>
       </c>
       <c r="AZ9">
-        <v>148.51835634154801</v>
+        <v>139.45006854101001</v>
       </c>
       <c r="BA9">
-        <v>201.14593791939001</v>
+        <v>424.38629927972801</v>
       </c>
       <c r="BB9">
         <v>52.527300430865402</v>
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="7"/>
-        <v>659.30544905104591</v>
+        <v>796.21335533687329</v>
+      </c>
+      <c r="BD9">
+        <v>3.7853137016296299</v>
+      </c>
+      <c r="BE9">
+        <v>1.0774073600769001</v>
+      </c>
+      <c r="BF9">
+        <v>3.1089398622512801</v>
+      </c>
+      <c r="BG9">
+        <v>8.9047353982925408</v>
+      </c>
+      <c r="BH9">
+        <v>1.51891868114471</v>
       </c>
       <c r="BI9" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18.395315003395062</v>
       </c>
       <c r="BO9" s="3"/>
       <c r="BP9" s="2">
@@ -2434,27 +2524,42 @@
         <v>20.53903040885924</v>
       </c>
       <c r="AX10" s="2">
-        <v>147.69962901947</v>
+        <v>140.75150562766299</v>
       </c>
       <c r="AY10">
-        <v>103.760923458101</v>
+        <v>40</v>
       </c>
       <c r="AZ10">
-        <v>148.51835634154801</v>
+        <v>140.87903611654599</v>
       </c>
       <c r="BA10">
-        <v>201.14593791939001</v>
+        <v>432.34501683676399</v>
       </c>
       <c r="BB10">
         <v>52.527300430865402</v>
       </c>
       <c r="BC10" s="5">
         <f t="shared" si="7"/>
-        <v>653.65214716937442</v>
+        <v>806.50285901183838</v>
+      </c>
+      <c r="BD10">
+        <v>4.0079732418060301</v>
+      </c>
+      <c r="BE10">
+        <v>1.11607925891876</v>
+      </c>
+      <c r="BF10">
+        <v>2.8924184560775701</v>
+      </c>
+      <c r="BG10">
+        <v>9.4406168460845894</v>
+      </c>
+      <c r="BH10">
+        <v>1.38134961128234</v>
       </c>
       <c r="BI10" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18.838437414169288</v>
       </c>
       <c r="BO10" s="3"/>
       <c r="BP10" s="2">
@@ -2634,27 +2739,42 @@
         <v>20.877705907821632</v>
       </c>
       <c r="AX11" s="2">
-        <v>151.98178517246799</v>
+        <v>149.81273706731301</v>
       </c>
       <c r="AY11">
-        <v>96.589732841017593</v>
+        <v>68.752569727043095</v>
       </c>
       <c r="AZ11">
-        <v>148.51835634154801</v>
+        <v>140.435773798935</v>
       </c>
       <c r="BA11">
-        <v>201.14593791939001</v>
+        <v>426.17819703939699</v>
       </c>
       <c r="BB11">
         <v>52.527300430865402</v>
       </c>
       <c r="BC11" s="5">
         <f t="shared" si="7"/>
-        <v>650.7631127052889</v>
+        <v>837.70657806355348</v>
+      </c>
+      <c r="BD11">
+        <v>5.3446875572204497</v>
+      </c>
+      <c r="BE11">
+        <v>1.56990046501159</v>
+      </c>
+      <c r="BF11">
+        <v>3.0920873641967699</v>
+      </c>
+      <c r="BG11">
+        <v>10.6866377115249</v>
+      </c>
+      <c r="BH11">
+        <v>1.5793529510497999</v>
       </c>
       <c r="BI11" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.272666049003512</v>
       </c>
       <c r="BO11" s="3"/>
       <c r="BP11" s="2">
@@ -2834,27 +2954,42 @@
         <v>24.47210226058958</v>
       </c>
       <c r="AX12" s="2">
-        <v>159.53160835793099</v>
+        <v>150.81021229721401</v>
       </c>
       <c r="AY12">
         <v>80.416179041571795</v>
       </c>
       <c r="AZ12">
-        <v>148.51835634154801</v>
+        <v>140.435773798935</v>
       </c>
       <c r="BA12">
-        <v>201.14593791939001</v>
+        <v>332.48810052104898</v>
       </c>
       <c r="BB12">
         <v>97.6493571215793</v>
       </c>
       <c r="BC12" s="5">
         <f t="shared" si="7"/>
-        <v>687.26143878202015</v>
+        <v>801.79962278034907</v>
+      </c>
+      <c r="BD12">
+        <v>8.2471124649047791</v>
+      </c>
+      <c r="BE12">
+        <v>2.1159934520721402</v>
+      </c>
+      <c r="BF12">
+        <v>4.1511456966400102</v>
+      </c>
+      <c r="BG12">
+        <v>10.8152113676071</v>
+      </c>
+      <c r="BH12">
+        <v>2.0720969200134198</v>
       </c>
       <c r="BI12" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>27.401559901237452</v>
       </c>
       <c r="BO12" s="3"/>
       <c r="BP12" s="2">
@@ -3034,42 +3169,42 @@
         <v>32.931035065650796</v>
       </c>
       <c r="AX13" s="2">
-        <v>191.60109661909999</v>
+        <v>469.50593025739698</v>
       </c>
       <c r="AY13">
-        <v>152.765610009699</v>
+        <v>241.293024355157</v>
       </c>
       <c r="AZ13">
-        <v>236.49151882785301</v>
+        <v>99.142320028168697</v>
       </c>
       <c r="BA13">
-        <v>280.64310765543701</v>
+        <v>192.170579406234</v>
       </c>
       <c r="BB13">
-        <v>147.44960822020801</v>
+        <v>79.630931759649698</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="7"/>
-        <v>1008.950941332297</v>
+        <v>1081.7427858066064</v>
       </c>
       <c r="BD13">
-        <v>2.3262340545654299</v>
+        <v>13.086991071701</v>
       </c>
       <c r="BE13">
-        <v>2.4108354091644202</v>
+        <v>2.8821770668029698</v>
       </c>
       <c r="BF13">
-        <v>3.34618639945983</v>
+        <v>1.37819013595581</v>
       </c>
       <c r="BG13">
-        <v>7.5758262634277296</v>
+        <v>3.6689483165740899</v>
       </c>
       <c r="BH13">
-        <v>1.05056838989257</v>
+        <v>0.77210824489593499</v>
       </c>
       <c r="BI13" s="3">
         <f t="shared" si="8"/>
-        <v>16.709650516509981</v>
+        <v>21.788414835929803</v>
       </c>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="3"/>
@@ -3240,42 +3375,42 @@
         <v>21.613297414779652</v>
       </c>
       <c r="AX14" s="2">
-        <v>162.23528861629501</v>
+        <v>297.84155105136301</v>
       </c>
       <c r="AY14">
-        <v>194.841703421321</v>
+        <v>60.907324233799102</v>
       </c>
       <c r="AZ14">
-        <v>203.28513804065699</v>
+        <v>644.18992204261701</v>
       </c>
       <c r="BA14">
-        <v>192.37871747527601</v>
+        <v>139.67918415673901</v>
       </c>
       <c r="BB14">
-        <v>203.96616199574001</v>
+        <v>100.552932497215</v>
       </c>
       <c r="BC14" s="5">
         <f t="shared" si="7"/>
-        <v>956.70700954928895</v>
+        <v>1243.1709139817331</v>
       </c>
       <c r="BD14">
-        <v>1.95728588104248</v>
+        <v>4.7049558401107703</v>
       </c>
       <c r="BE14">
-        <v>8.7276434659957793</v>
+        <v>0.94346559047698897</v>
       </c>
       <c r="BF14">
-        <v>7.8754865169525097</v>
+        <v>56.696317219734098</v>
       </c>
       <c r="BG14">
-        <v>12.142415261268599</v>
+        <v>4.1505309820175098</v>
       </c>
       <c r="BH14">
-        <v>4.0032829761505102</v>
+        <v>0.75656261444091799</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" si="8"/>
-        <v>34.706114101409881</v>
+        <v>67.251832246780296</v>
       </c>
       <c r="BJ14" s="2"/>
       <c r="BK14" s="3"/>
@@ -3446,42 +3581,42 @@
         <v>32.360796952247512</v>
       </c>
       <c r="AX15" s="2">
-        <v>154.15981694475701</v>
+        <v>504.82487045446999</v>
       </c>
       <c r="AY15">
-        <v>179.98771894786299</v>
+        <v>104.040816824506</v>
       </c>
       <c r="AZ15">
-        <v>193.72975940217401</v>
+        <v>85.787857685292494</v>
       </c>
       <c r="BA15">
-        <v>223.07960769595601</v>
+        <v>173.29116952230899</v>
       </c>
       <c r="BB15">
-        <v>203.96616199574001</v>
+        <v>100.552932497215</v>
       </c>
       <c r="BC15" s="5">
         <f t="shared" si="7"/>
-        <v>954.92306498649009</v>
+        <v>968.49764698379249</v>
       </c>
       <c r="BD15">
-        <v>2.8945992708206099</v>
+        <v>76.718925714492798</v>
       </c>
       <c r="BE15">
-        <v>10.125803351402199</v>
+        <v>1.25215656757354</v>
       </c>
       <c r="BF15">
-        <v>8.3951948404312091</v>
+        <v>1.5658354043960501</v>
       </c>
       <c r="BG15">
-        <v>9.8621416568756093</v>
+        <v>4.5211020231246897</v>
       </c>
       <c r="BH15">
-        <v>5.69464719295501</v>
+        <v>0.70831387042999205</v>
       </c>
       <c r="BI15" s="3">
         <f t="shared" si="8"/>
-        <v>36.972386312484637</v>
+        <v>84.766333580017061</v>
       </c>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="3"/>
@@ -3652,42 +3787,42 @@
         <v>50.974805712699833</v>
       </c>
       <c r="AX16" s="2">
-        <v>209.47544395263799</v>
+        <v>483.07869689922398</v>
       </c>
       <c r="AY16">
-        <v>122.70776287405</v>
+        <v>98.040767988325996</v>
       </c>
       <c r="AZ16">
-        <v>177.46622666951899</v>
+        <v>160.77505361228401</v>
       </c>
       <c r="BA16">
-        <v>274.892661988626</v>
+        <v>183.195780832656</v>
       </c>
       <c r="BB16">
-        <v>200.288763819368</v>
+        <v>79.630931759649698</v>
       </c>
       <c r="BC16" s="5">
         <f t="shared" si="7"/>
-        <v>984.830859304201</v>
+        <v>1004.7212310921398</v>
       </c>
       <c r="BD16">
-        <v>9.6403618574142396</v>
+        <v>113.502178549766</v>
       </c>
       <c r="BE16">
-        <v>5.0469834566116303</v>
+        <v>2.95441341400146</v>
       </c>
       <c r="BF16">
-        <v>8.5123889684677092</v>
+        <v>5.3524569511413498</v>
       </c>
       <c r="BG16">
-        <v>60.347579288482599</v>
+        <v>19.454448795318601</v>
       </c>
       <c r="BH16">
-        <v>3.3278852224349902</v>
+        <v>0.77219038009643504</v>
       </c>
       <c r="BI16" s="3">
         <f t="shared" si="8"/>
-        <v>86.875198793411158</v>
+        <v>142.03568809032387</v>
       </c>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="3"/>
@@ -3858,42 +3993,42 @@
         <v>100.36666069030753</v>
       </c>
       <c r="AX17" s="2">
-        <v>255.03155596785001</v>
+        <v>498.06223022548301</v>
       </c>
       <c r="AY17">
-        <v>153.274802852101</v>
+        <v>59.066061884076902</v>
       </c>
       <c r="AZ17">
-        <v>201.234408199353</v>
+        <v>103.129572973988</v>
       </c>
       <c r="BA17">
-        <v>217.77063368948899</v>
+        <v>115.796152416106</v>
       </c>
       <c r="BB17">
-        <v>152.961126160129</v>
+        <v>88.9533318454842</v>
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="7"/>
-        <v>980.27252686892189</v>
+        <v>865.0073493451381</v>
       </c>
       <c r="BD17">
-        <v>4.7898680686950597</v>
+        <v>33.742424821853596</v>
       </c>
       <c r="BE17">
-        <v>4.7060689687728798</v>
+        <v>1.3183809757232601</v>
       </c>
       <c r="BF17">
-        <v>4.2889524698257402</v>
+        <v>1.1533419609069799</v>
       </c>
       <c r="BG17">
-        <v>5.3304991960525498</v>
+        <v>4.0083404779434204</v>
       </c>
       <c r="BH17">
-        <v>1.9299154758453301</v>
+        <v>1.1886954069137501</v>
       </c>
       <c r="BI17" s="3">
         <f t="shared" si="8"/>
-        <v>21.045304179191561</v>
+        <v>41.411183643341005</v>
       </c>
       <c r="BJ17" s="2"/>
       <c r="BK17" s="3"/>
@@ -4064,42 +4199,42 @@
         <v>29.195084238052349</v>
       </c>
       <c r="AX18" s="2">
-        <v>121.91028772329101</v>
+        <v>510.69342355376398</v>
       </c>
       <c r="AY18">
-        <v>139.64886821887001</v>
+        <v>236.64938232465499</v>
       </c>
       <c r="AZ18">
-        <v>255.510506326995</v>
+        <v>75.465633046055402</v>
       </c>
       <c r="BA18">
-        <v>317.28477466988397</v>
+        <v>163.35070646687899</v>
       </c>
       <c r="BB18">
         <v>71.054083775364404</v>
       </c>
       <c r="BC18" s="5">
         <f t="shared" si="7"/>
-        <v>905.4085207144044</v>
+        <v>1057.2132291667178</v>
       </c>
       <c r="BD18">
-        <v>1.7158150196075399</v>
+        <v>62.510995817184401</v>
       </c>
       <c r="BE18">
-        <v>2.4106436014175401</v>
+        <v>1.9374373197555499</v>
       </c>
       <c r="BF18">
-        <v>13.6441696166992</v>
+        <v>1.2462961912155099</v>
       </c>
       <c r="BG18">
-        <v>23.0484363079071</v>
+        <v>3.4884835243225099</v>
       </c>
       <c r="BH18">
-        <v>0.71122369766235305</v>
+        <v>0.73709795475006101</v>
       </c>
       <c r="BI18" s="3">
         <f t="shared" si="8"/>
-        <v>41.530288243293732</v>
+        <v>69.92031080722802</v>
       </c>
       <c r="BJ18" s="2"/>
       <c r="BK18" s="3"/>
@@ -4270,42 +4405,42 @@
         <v>44.955911874771076</v>
       </c>
       <c r="AX19" s="2">
-        <v>171.64341002549</v>
+        <v>506.49101120804801</v>
       </c>
       <c r="AY19">
-        <v>153.06827551576001</v>
+        <v>56.1131222576387</v>
       </c>
       <c r="AZ19">
-        <v>245.98456547815201</v>
+        <v>103.129572973988</v>
       </c>
       <c r="BA19">
-        <v>234.51523448165599</v>
+        <v>115.64828583210701</v>
       </c>
       <c r="BB19">
-        <v>115.566897157905</v>
+        <v>88.9533318454842</v>
       </c>
       <c r="BC19" s="5">
         <f t="shared" si="7"/>
-        <v>920.77838265896298</v>
+        <v>870.33532411726594</v>
       </c>
       <c r="BD19">
-        <v>4.0179288864135696</v>
+        <v>53.717104673385599</v>
       </c>
       <c r="BE19">
-        <v>10.497101783752401</v>
+        <v>1.7942620277404699</v>
       </c>
       <c r="BF19">
-        <v>5.7385233879089297</v>
+        <v>1.37312359809875</v>
       </c>
       <c r="BG19">
-        <v>10.439405155181801</v>
+        <v>6.8678043842315599</v>
       </c>
       <c r="BH19">
-        <v>1.6903026819229101</v>
+        <v>1.41702034473419</v>
       </c>
       <c r="BI19" s="3">
         <f t="shared" si="8"/>
-        <v>32.383261895179608</v>
+        <v>65.169315028190567</v>
       </c>
       <c r="BJ19" s="2"/>
       <c r="BK19" s="3"/>
@@ -4476,42 +4611,42 @@
         <v>38.964171671867291</v>
       </c>
       <c r="AX20" s="2">
-        <v>255.03155596785001</v>
+        <v>506.49101120804801</v>
       </c>
       <c r="AY20">
-        <v>153.10575474694599</v>
+        <v>59.944074152483999</v>
       </c>
       <c r="AZ20">
-        <v>201.234408199353</v>
+        <v>101.568543845684</v>
       </c>
       <c r="BA20">
-        <v>215.15452526107899</v>
+        <v>115.796152416106</v>
       </c>
       <c r="BB20">
-        <v>152.961126160129</v>
+        <v>87.551702443373998</v>
       </c>
       <c r="BC20" s="5">
         <f t="shared" si="7"/>
-        <v>977.48737033535701</v>
+        <v>871.3514840656959</v>
       </c>
       <c r="BD20">
-        <v>6.9872960567474296</v>
+        <v>86.238706946372901</v>
       </c>
       <c r="BE20">
-        <v>6.06264727115631</v>
+        <v>1.3397820234298701</v>
       </c>
       <c r="BF20">
-        <v>6.0962523221969596</v>
+        <v>1.39603667259216</v>
       </c>
       <c r="BG20">
-        <v>9.3334361314773506</v>
+        <v>6.3782147169113097</v>
       </c>
       <c r="BH20">
-        <v>2.4319459438323898</v>
+        <v>1.53163836002349</v>
       </c>
       <c r="BI20" s="3">
         <f t="shared" si="8"/>
-        <v>30.911577725410439</v>
+        <v>96.884378719329746</v>
       </c>
       <c r="BJ20" s="2"/>
       <c r="BK20" s="3"/>
@@ -4605,23 +4740,43 @@
         <f t="shared" si="4"/>
         <v>22.0866687774658</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
+      <c r="Z21">
+        <v>471.53747107652401</v>
+      </c>
+      <c r="AA21">
+        <v>359.550408817483</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>990.94003393881496</v>
+      </c>
+      <c r="AD21">
+        <v>65.141454755745102</v>
+      </c>
       <c r="AE21" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
+        <v>1887.1693685885671</v>
+      </c>
+      <c r="AF21">
+        <v>4.2987355947494503</v>
+      </c>
+      <c r="AG21">
+        <v>2.53370175361633</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>17.625498437881401</v>
+      </c>
+      <c r="AJ21">
+        <v>0.80210704803466704</v>
+      </c>
       <c r="AK21" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.260042834281847</v>
       </c>
       <c r="AL21" s="2">
         <v>228.99933861109699</v>
@@ -4661,23 +4816,43 @@
         <f t="shared" si="10"/>
         <v>43.084722352027718</v>
       </c>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
+      <c r="AX21" s="2">
+        <v>823.23184211983005</v>
+      </c>
+      <c r="AY21">
+        <v>194.303040837769</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>547.99898154103505</v>
+      </c>
+      <c r="BB21">
+        <v>111.91738995370299</v>
+      </c>
       <c r="BC21" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
+        <v>1677.451254452337</v>
+      </c>
+      <c r="BD21">
+        <v>16.965746235847401</v>
+      </c>
+      <c r="BE21">
+        <v>1.9134644031524599</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>10.0577548027038</v>
+      </c>
+      <c r="BH21">
+        <v>1.45210971832275</v>
+      </c>
       <c r="BI21" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30.389075160026412</v>
       </c>
       <c r="BJ21" s="2"/>
       <c r="BK21" s="3"/>
@@ -4771,23 +4946,43 @@
         <f t="shared" si="4"/>
         <v>24.563939309120119</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
+      <c r="Z22">
+        <v>309.37587941668801</v>
+      </c>
+      <c r="AA22">
+        <v>470.94700717724402</v>
+      </c>
+      <c r="AB22">
+        <v>162.69912452858301</v>
+      </c>
+      <c r="AC22">
+        <v>464.03842270994198</v>
+      </c>
+      <c r="AD22">
+        <v>77.912360725293098</v>
+      </c>
       <c r="AE22" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
+        <v>1484.9727945577501</v>
+      </c>
+      <c r="AF22">
+        <v>4.40447568893432</v>
+      </c>
+      <c r="AG22">
+        <v>5.0881580114364597</v>
+      </c>
+      <c r="AH22">
+        <v>1.1488970756530701</v>
+      </c>
+      <c r="AI22">
+        <v>16.244866561889602</v>
+      </c>
+      <c r="AJ22">
+        <v>0.87263026237487795</v>
+      </c>
       <c r="AK22" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27.759027600288327</v>
       </c>
       <c r="AL22" s="2">
         <v>327.04614536947798</v>
@@ -4827,23 +5022,43 @@
         <f t="shared" si="10"/>
         <v>29.93271484374992</v>
       </c>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
+      <c r="AX22" s="2">
+        <v>202.06999532081201</v>
+      </c>
+      <c r="AY22">
+        <v>1135.4138478258101</v>
+      </c>
+      <c r="AZ22">
+        <v>54.286503810670403</v>
+      </c>
+      <c r="BA22">
+        <v>340.02378268858803</v>
+      </c>
+      <c r="BB22">
+        <v>77.912360725293098</v>
+      </c>
       <c r="BC22" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
+        <v>1809.7064903711737</v>
+      </c>
+      <c r="BD22">
+        <v>3.4927234888076701</v>
+      </c>
+      <c r="BE22">
+        <v>18.2766682386398</v>
+      </c>
+      <c r="BF22">
+        <v>0.64574494361877399</v>
+      </c>
+      <c r="BG22">
+        <v>13.3390654325485</v>
+      </c>
+      <c r="BH22">
+        <v>0.99457974433898899</v>
+      </c>
       <c r="BI22" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>36.748781847953737</v>
       </c>
       <c r="BJ22" s="2"/>
       <c r="BK22" s="3"/>
@@ -4937,23 +5152,43 @@
         <f t="shared" si="4"/>
         <v>28.712682366371059</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
+      <c r="Z23">
+        <v>337.62530967915302</v>
+      </c>
+      <c r="AA23">
+        <v>305.56920110901302</v>
+      </c>
+      <c r="AB23">
+        <v>132.01879948138401</v>
+      </c>
+      <c r="AC23">
+        <v>424.70177360042499</v>
+      </c>
+      <c r="AD23">
+        <v>149.532306694402</v>
+      </c>
       <c r="AE23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+        <v>1349.4473905643772</v>
+      </c>
+      <c r="AF23">
+        <v>4.61193325519561</v>
+      </c>
+      <c r="AG23">
+        <v>3.9909723997116</v>
+      </c>
+      <c r="AH23">
+        <v>1.1774637222290001</v>
+      </c>
+      <c r="AI23">
+        <v>15.747480559349</v>
+      </c>
+      <c r="AJ23">
+        <v>1.38302676677703</v>
+      </c>
       <c r="AK23" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>26.91087670326224</v>
       </c>
       <c r="AL23" s="2">
         <v>227.96857450015699</v>
@@ -4993,23 +5228,43 @@
         <f t="shared" si="10"/>
         <v>50.224551606178224</v>
       </c>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
+      <c r="AX23" s="2">
+        <v>237.53862304939699</v>
+      </c>
+      <c r="AY23">
+        <v>138.55278096388599</v>
+      </c>
+      <c r="AZ23">
+        <v>66.624168797297401</v>
+      </c>
+      <c r="BA23">
+        <v>777.86099743783598</v>
+      </c>
+      <c r="BB23">
+        <v>159.88178012719899</v>
+      </c>
       <c r="BC23" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
+        <v>1380.4583503756153</v>
+      </c>
+      <c r="BD23">
+        <v>4.2059986591339102</v>
+      </c>
+      <c r="BE23">
+        <v>1.6480511426925599</v>
+      </c>
+      <c r="BF23">
+        <v>0.83713428974151605</v>
+      </c>
+      <c r="BG23">
+        <v>39.941155767440797</v>
+      </c>
+      <c r="BH23">
+        <v>1.82918717861175</v>
+      </c>
       <c r="BI23" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>48.461527037620527</v>
       </c>
       <c r="BJ23" s="2"/>
       <c r="BK23" s="3"/>
@@ -5103,23 +5358,43 @@
         <f t="shared" si="4"/>
         <v>34.636747312545722</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
+      <c r="Z24">
+        <v>151.21874028225801</v>
+      </c>
+      <c r="AA24">
+        <v>256.03758376603503</v>
+      </c>
+      <c r="AB24">
+        <v>110.215753225741</v>
+      </c>
+      <c r="AC24">
+        <v>398.625195304013</v>
+      </c>
+      <c r="AD24">
+        <v>135.05983126734199</v>
+      </c>
       <c r="AE24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
+        <v>1051.157103845389</v>
+      </c>
+      <c r="AF24">
+        <v>3.2655524492263699</v>
+      </c>
+      <c r="AG24">
+        <v>4.9849791526794398</v>
+      </c>
+      <c r="AH24">
+        <v>1.3178313016891401</v>
+      </c>
+      <c r="AI24">
+        <v>22.018344712257299</v>
+      </c>
+      <c r="AJ24">
+        <v>1.5469970703125</v>
+      </c>
       <c r="AK24" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.133704686164748</v>
       </c>
       <c r="AL24" s="2">
         <v>227.49370614343701</v>
@@ -5159,23 +5434,43 @@
         <f t="shared" si="10"/>
         <v>95.563964772224395</v>
       </c>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
+      <c r="AX24" s="2">
+        <v>672.36334029283296</v>
+      </c>
+      <c r="AY24">
+        <v>91.608527529882195</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>245.093575367863</v>
+      </c>
+      <c r="BB24">
+        <v>110.174827093068</v>
+      </c>
       <c r="BC24" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
+        <v>1119.2402702836462</v>
+      </c>
+      <c r="BD24">
+        <v>32.595120501518203</v>
+      </c>
+      <c r="BE24">
+        <v>1.1679132938385</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>10.3736093997955</v>
+      </c>
+      <c r="BH24">
+        <v>1.2329575777053801</v>
+      </c>
       <c r="BI24" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>45.369600772857581</v>
       </c>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="3"/>
@@ -5269,23 +5564,43 @@
         <f t="shared" si="4"/>
         <v>25.31383686065664</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
+      <c r="Z25">
+        <v>659.65712648713202</v>
+      </c>
+      <c r="AA25">
+        <v>284.57162306195602</v>
+      </c>
+      <c r="AB25">
+        <v>73.760840585371895</v>
+      </c>
+      <c r="AC25">
+        <v>632.39002433235203</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
       <c r="AE25" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
+        <v>1650.3796144668117</v>
+      </c>
+      <c r="AF25">
+        <v>13.884297919273299</v>
+      </c>
+      <c r="AG25">
+        <v>2.10244145393371</v>
+      </c>
+      <c r="AH25">
+        <v>0.77879858016967696</v>
+      </c>
+      <c r="AI25">
+        <v>14.286205220222399</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
       <c r="AK25" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31.051743173599085</v>
       </c>
       <c r="AL25" s="2">
         <v>313.13217148424201</v>
@@ -5325,23 +5640,43 @@
         <f t="shared" si="10"/>
         <v>27.059241557121258</v>
       </c>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
+      <c r="AX25" s="2">
+        <v>552.45223439806102</v>
+      </c>
+      <c r="AY25">
+        <v>138.42945270205399</v>
+      </c>
+      <c r="AZ25">
+        <v>26.3058928759318</v>
+      </c>
+      <c r="BA25">
+        <v>695.81911331159904</v>
+      </c>
+      <c r="BB25">
+        <v>97.211201382527307</v>
+      </c>
       <c r="BC25" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
+        <v>1510.2178946701731</v>
+      </c>
+      <c r="BD25">
+        <v>9.8842696666717504</v>
+      </c>
+      <c r="BE25">
+        <v>1.5128906726837099</v>
+      </c>
+      <c r="BF25">
+        <v>0.54004054069519003</v>
+      </c>
+      <c r="BG25">
+        <v>15.314689636230399</v>
+      </c>
+      <c r="BH25">
+        <v>0.898658800125122</v>
+      </c>
       <c r="BI25" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28.150549316406174</v>
       </c>
       <c r="BJ25" s="2"/>
       <c r="BK25" s="3"/>
@@ -5512,42 +5847,42 @@
         <v>24.977285933494549</v>
       </c>
       <c r="AX26" s="2">
-        <v>217.199137022526</v>
+        <v>653.81974360815002</v>
       </c>
       <c r="AY26">
-        <v>412.36068305056602</v>
+        <v>166.37329922137499</v>
       </c>
       <c r="AZ26">
         <v>68.536601015313906</v>
       </c>
       <c r="BA26">
-        <v>421.11347982908001</v>
+        <v>344.37705944385698</v>
       </c>
       <c r="BB26">
-        <v>211.766344279549</v>
+        <v>221.69443923499301</v>
       </c>
       <c r="BC26" s="5">
         <f t="shared" si="7"/>
-        <v>1330.9762451970348</v>
+        <v>1454.8011425236889</v>
       </c>
       <c r="BD26">
-        <v>3.6275955915450999</v>
+        <v>18.4801769733428</v>
       </c>
       <c r="BE26">
-        <v>4.4328388452529897</v>
+        <v>1.4267512798309301</v>
       </c>
       <c r="BF26">
-        <v>0.78531858921051001</v>
+        <v>0.77198188304901105</v>
       </c>
       <c r="BG26">
-        <v>14.0302715063095</v>
+        <v>15.4271924018859</v>
       </c>
       <c r="BH26">
-        <v>2.1012614011764499</v>
+        <v>1.6158584117889401</v>
       </c>
       <c r="BI26" s="3">
         <f t="shared" si="8"/>
-        <v>24.977285933494549</v>
+        <v>37.721960949897586</v>
       </c>
       <c r="BJ26" s="2"/>
       <c r="BK26" s="3"/>
@@ -6612,10 +6947,6 @@
         <v>0</v>
       </c>
       <c r="AX34" s="2"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
       <c r="BC34" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6738,10 +7069,6 @@
         <v>0</v>
       </c>
       <c r="AX35" s="2"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
       <c r="BC35" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6864,10 +7191,6 @@
         <v>0</v>
       </c>
       <c r="AX36" s="2"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
       <c r="BC36" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6970,10 +7293,6 @@
         <v>0</v>
       </c>
       <c r="AX37" s="2"/>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
       <c r="BC37" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7076,10 +7395,6 @@
         <v>0</v>
       </c>
       <c r="AX38" s="2"/>
-      <c r="AY38" s="3"/>
-      <c r="AZ38" s="3"/>
-      <c r="BA38" s="3"/>
-      <c r="BB38" s="3"/>
       <c r="BC38" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7792,42 +8107,42 @@
         <v>18.17330055236814</v>
       </c>
       <c r="AX44" s="2">
-        <v>271.65705267665197</v>
+        <v>146.25953144293999</v>
       </c>
       <c r="AY44">
-        <v>346.97199372044503</v>
+        <v>898.29652026838301</v>
       </c>
       <c r="AZ44">
-        <v>159.81586031360001</v>
+        <v>129.07996755719799</v>
       </c>
       <c r="BA44">
-        <v>559.52950564856098</v>
+        <v>375.09244122230399</v>
       </c>
       <c r="BB44">
-        <v>262.72606222791097</v>
+        <v>172.65289634122999</v>
       </c>
       <c r="BC44" s="5">
         <f t="shared" si="7"/>
-        <v>1600.7004745871691</v>
+        <v>1721.381356832055</v>
       </c>
       <c r="BD44">
-        <v>2.70844893455505</v>
+        <v>1.6476099729537901</v>
       </c>
       <c r="BE44">
-        <v>3.2132509946823098</v>
+        <v>7.8519223690032902</v>
       </c>
       <c r="BF44">
-        <v>1.7161518335342401</v>
+        <v>1.53430907726287</v>
       </c>
       <c r="BG44">
-        <v>7.1020629405975297</v>
+        <v>4.9050347328186001</v>
       </c>
       <c r="BH44">
-        <v>2.7851715326309199</v>
+        <v>2.3348510265350302</v>
       </c>
       <c r="BI44" s="3">
         <f t="shared" si="8"/>
-        <v>17.52508623600005</v>
+        <v>18.27372717857358</v>
       </c>
       <c r="BJ44" s="2"/>
       <c r="BK44" s="3"/>
@@ -7998,42 +8313,42 @@
         <v>22.496921610832139</v>
       </c>
       <c r="AX45" s="2">
-        <v>344.62596919853399</v>
+        <v>576.56926207675394</v>
       </c>
       <c r="AY45">
-        <v>215.435176742984</v>
+        <v>126.312800036341</v>
       </c>
       <c r="AZ45">
         <v>100.98528297686499</v>
       </c>
       <c r="BA45">
-        <v>537.29373381814196</v>
+        <v>438.34600846515502</v>
       </c>
       <c r="BB45">
-        <v>259.03601938656698</v>
+        <v>218.81405651266999</v>
       </c>
       <c r="BC45" s="5">
         <f t="shared" si="7"/>
-        <v>1457.3761821230921</v>
+        <v>1461.0274100677848</v>
       </c>
       <c r="BD45">
-        <v>4.58266913890838</v>
+        <v>6.6610542297363198</v>
       </c>
       <c r="BE45">
-        <v>3.1417564392089798</v>
+        <v>2.1080769777297901</v>
       </c>
       <c r="BF45">
-        <v>1.54346907138824</v>
+        <v>1.46314051151275</v>
       </c>
       <c r="BG45">
-        <v>8.4524085283279398</v>
+        <v>7.3135597944259603</v>
       </c>
       <c r="BH45">
-        <v>3.0485909461974998</v>
+        <v>2.5191693067550598</v>
       </c>
       <c r="BI45" s="3">
         <f t="shared" si="8"/>
-        <v>20.768894124031039</v>
+        <v>20.065000820159881</v>
       </c>
       <c r="BJ45" s="2"/>
       <c r="BK45" s="3"/>
@@ -8204,42 +8519,42 @@
         <v>25.369833517074568</v>
       </c>
       <c r="AX46" s="2">
-        <v>252.63423358468799</v>
+        <v>518.75632781134004</v>
       </c>
       <c r="AY46">
-        <v>148.21036548446301</v>
+        <v>136.71450119354199</v>
       </c>
       <c r="AZ46">
-        <v>162.471818537545</v>
+        <v>87.670127202512006</v>
       </c>
       <c r="BA46">
-        <v>485.42455993323603</v>
+        <v>455.20073451661301</v>
       </c>
       <c r="BB46">
-        <v>202.529359976237</v>
+        <v>171.05070474716101</v>
       </c>
       <c r="BC46" s="5">
         <f t="shared" si="7"/>
-        <v>1251.2703375161689</v>
+        <v>1369.3923954711681</v>
       </c>
       <c r="BD46">
-        <v>3.8209200620651198</v>
+        <v>9.3806547641754108</v>
       </c>
       <c r="BE46">
-        <v>2.66655712127685</v>
+        <v>2.2943431854248</v>
       </c>
       <c r="BF46">
-        <v>1.8093005180358801</v>
+        <v>1.11406264305114</v>
       </c>
       <c r="BG46">
-        <v>12.026044535636901</v>
+        <v>8.5215935945510797</v>
       </c>
       <c r="BH46">
-        <v>3.5702030897140502</v>
+        <v>3.2870839834213199</v>
       </c>
       <c r="BI46" s="3">
         <f t="shared" si="8"/>
-        <v>23.893025326728797</v>
+        <v>24.597738170623749</v>
       </c>
       <c r="BJ46" s="2"/>
       <c r="BK46" s="3"/>
@@ -8410,42 +8725,42 @@
         <v>28.027492094039808</v>
       </c>
       <c r="AX47" s="2">
-        <v>257.04653943589301</v>
+        <v>407.57400458535699</v>
       </c>
       <c r="AY47">
-        <v>190.614330794506</v>
+        <v>143.08452763474901</v>
       </c>
       <c r="AZ47">
         <v>70.102769245761607</v>
       </c>
       <c r="BA47">
-        <v>320.30378666068799</v>
+        <v>289.25854049750097</v>
       </c>
       <c r="BB47">
-        <v>172.40769772049899</v>
+        <v>123.14768326382899</v>
       </c>
       <c r="BC47" s="5">
         <f t="shared" si="7"/>
-        <v>1010.4751238573475</v>
+        <v>1033.1675252271978</v>
       </c>
       <c r="BD47">
-        <v>6.4187736034393303</v>
+        <v>10.092065215110701</v>
       </c>
       <c r="BE47">
-        <v>3.8531149625778198</v>
+        <v>3.5704447507858199</v>
       </c>
       <c r="BF47">
-        <v>1.88040461540222</v>
+        <v>1.99086055755615</v>
       </c>
       <c r="BG47">
-        <v>9.4230419158935508</v>
+        <v>7.2444054126739497</v>
       </c>
       <c r="BH47">
-        <v>3.9600327730178799</v>
+        <v>2.6184743881225501</v>
       </c>
       <c r="BI47" s="3">
         <f t="shared" si="8"/>
-        <v>25.535367870330802</v>
+        <v>25.516250324249171</v>
       </c>
       <c r="BJ47" s="2"/>
       <c r="BK47" s="3"/>
@@ -8616,42 +8931,42 @@
         <v>21.407826399803142</v>
       </c>
       <c r="AX48" s="2">
-        <v>234.02128846335199</v>
+        <v>675.15784241443703</v>
       </c>
       <c r="AY48">
-        <v>429.68766503450598</v>
+        <v>172.154833551552</v>
       </c>
       <c r="AZ48">
         <v>60.450474501971101</v>
       </c>
       <c r="BA48">
-        <v>485.812871442465</v>
+        <v>380.87774292595401</v>
       </c>
       <c r="BB48">
-        <v>276.03007656333102</v>
+        <v>219.434650918828</v>
       </c>
       <c r="BC48" s="5">
         <f t="shared" si="7"/>
-        <v>1486.0023760056251</v>
+        <v>1508.0755443127423</v>
       </c>
       <c r="BD48">
-        <v>2.5435434103011998</v>
+        <v>9.8095531702041594</v>
       </c>
       <c r="BE48">
-        <v>6.3640658617019596</v>
+        <v>2.5844705104827801</v>
       </c>
       <c r="BF48">
-        <v>1.1545655727386399</v>
+        <v>1.14173021316528</v>
       </c>
       <c r="BG48">
-        <v>6.8241875648498498</v>
+        <v>5.0891876935958802</v>
       </c>
       <c r="BH48">
-        <v>2.9808768749237</v>
+        <v>2.80657510757446</v>
       </c>
       <c r="BI48" s="3">
         <f t="shared" si="8"/>
-        <v>19.86723928451535</v>
+        <v>21.431516695022559</v>
       </c>
       <c r="BJ48" s="2"/>
       <c r="BK48" s="3"/>
